--- a/inst/Data_Example.xlsx
+++ b/inst/Data_Example.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\DLMtool\inst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\DLMtool\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D057CCD1-F8EC-4050-8843-DF8CC0F8DB7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="-1880" windowWidth="9990" windowHeight="15120"/>
+    <workbookView xWindow="44100" yWindow="-2265" windowWidth="11325" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -477,7 +478,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1329,20 +1330,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1350,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +1359,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1366,7 +1367,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1374,7 +1375,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1382,7 +1383,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1390,12 +1391,12 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1403,22 +1404,22 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1426,7 +1427,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1434,7 +1435,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1442,7 +1443,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1450,7 +1451,7 @@
         <v>1324.4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1458,7 +1459,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1466,7 +1467,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1474,7 +1475,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1482,7 +1483,7 @@
         <v>-0.47</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1490,47 +1491,47 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1538,7 +1539,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1546,7 +1547,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="33" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -1562,12 +1563,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -1575,7 +1576,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -1583,17 +1584,17 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="38" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -1601,12 +1602,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -1797,7 +1798,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="44" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -1988,22 +1989,22 @@
         <v>508.24340000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -2194,77 +2195,77 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>93</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>94</v>
       </c>
@@ -2346,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>95</v>
       </c>
@@ -2387,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>96</v>
       </c>
@@ -2428,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -2469,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>98</v>
       </c>
@@ -2510,7 +2511,7 @@
         <v>0.99839999999999995</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>99</v>
       </c>
@@ -2551,7 +2552,7 @@
         <v>1.9594</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>100</v>
       </c>
@@ -2592,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>101</v>
       </c>
@@ -2633,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>102</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>103</v>
       </c>
@@ -2715,7 +2716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>104</v>
       </c>
@@ -2756,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>105</v>
       </c>
@@ -2797,7 +2798,7 @@
         <v>1.0013000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>106</v>
       </c>
@@ -2838,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -2879,7 +2880,7 @@
         <v>8.9960000000000004</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>108</v>
       </c>
@@ -2920,7 +2921,7 @@
         <v>9.0021000000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>109</v>
       </c>
@@ -2961,7 +2962,7 @@
         <v>2.0015999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>110</v>
       </c>
@@ -3002,7 +3003,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>111</v>
       </c>
@@ -3043,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>112</v>
       </c>
@@ -3084,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>113</v>
       </c>
@@ -3125,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>114</v>
       </c>
@@ -3166,7 +3167,7 @@
         <v>2.9969999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>115</v>
       </c>
@@ -3207,7 +3208,7 @@
         <v>1.9850000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>116</v>
       </c>
@@ -3248,7 +3249,7 @@
         <v>1.0137</v>
       </c>
     </row>
-    <row r="88" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>117</v>
       </c>
@@ -3289,7 +3290,7 @@
         <v>2.9855999999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>118</v>
       </c>
@@ -3330,7 +3331,7 @@
         <v>3.0030000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>119</v>
       </c>
@@ -3371,17 +3372,17 @@
         <v>8.9951000000000008</v>
       </c>
     </row>
-    <row r="92" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>59</v>
       </c>
@@ -3521,12 +3522,12 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="95" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>120</v>
       </c>
@@ -3663,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>121</v>
       </c>
@@ -3800,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>122</v>
       </c>
@@ -3937,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>123</v>
       </c>
@@ -4074,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>124</v>
       </c>
@@ -4211,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>125</v>
       </c>
@@ -4348,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>126</v>
       </c>
@@ -4485,7 +4486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>127</v>
       </c>
@@ -4622,7 +4623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>128</v>
       </c>
@@ -4759,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>129</v>
       </c>
@@ -4896,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>130</v>
       </c>
@@ -5033,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>131</v>
       </c>
@@ -5170,7 +5171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>132</v>
       </c>
@@ -5307,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>133</v>
       </c>
@@ -5444,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>134</v>
       </c>
@@ -5581,7 +5582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>135</v>
       </c>
@@ -5718,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>136</v>
       </c>
@@ -5855,7 +5856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>137</v>
       </c>
@@ -5992,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>138</v>
       </c>
@@ -6129,7 +6130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>139</v>
       </c>
@@ -6266,7 +6267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>140</v>
       </c>
@@ -6403,7 +6404,7 @@
         <v>3.8750100000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>141</v>
       </c>
@@ -6540,7 +6541,7 @@
         <v>1.791685</v>
       </c>
     </row>
-    <row r="118" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>142</v>
       </c>
@@ -6677,7 +6678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>143</v>
       </c>
@@ -6814,7 +6815,7 @@
         <v>0.66251099999999996</v>
       </c>
     </row>
-    <row r="120" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>144</v>
       </c>
@@ -6951,7 +6952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>145</v>
       </c>
@@ -7088,7 +7089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>146</v>
       </c>
@@ -7225,7 +7226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>147</v>
       </c>
@@ -7362,7 +7363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>148</v>
       </c>
@@ -7499,7 +7500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>149</v>
       </c>
@@ -7636,7 +7637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>150</v>
       </c>
@@ -7773,122 +7774,122 @@
         <v>1.1606920000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>84</v>
       </c>

--- a/inst/Data_Example.xlsx
+++ b/inst/Data_Example.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\DLMtool\inst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\DLMtool\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D057CCD1-F8EC-4050-8843-DF8CC0F8DB7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44100" yWindow="-2265" windowWidth="11325" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44100" yWindow="-2270" windowWidth="11330" windowHeight="15120"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -478,7 +477,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1330,20 +1329,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90:Q90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1359,7 +1358,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1367,7 +1366,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1375,7 +1374,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1383,7 +1382,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1391,12 +1390,12 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1404,22 +1403,22 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1427,7 +1426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1435,7 +1434,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1443,7 +1442,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1451,7 +1450,7 @@
         <v>1324.4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1459,7 +1458,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1467,7 +1466,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1475,7 +1474,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1483,7 +1482,7 @@
         <v>-0.47</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1491,47 +1490,47 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1539,7 +1538,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1547,7 +1546,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1555,7 +1554,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="33" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -1563,12 +1562,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -1576,7 +1575,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -1584,17 +1583,17 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="38" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -1602,12 +1601,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -1798,7 +1797,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="44" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -1989,22 +1988,22 @@
         <v>508.24340000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -2195,77 +2194,77 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>93</v>
       </c>
@@ -2305,8 +2304,20 @@
       <c r="M64" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64" s="4">
+        <v>0</v>
+      </c>
+      <c r="O64" s="4">
+        <v>0</v>
+      </c>
+      <c r="P64" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>94</v>
       </c>
@@ -2346,8 +2357,20 @@
       <c r="M65" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N65" s="4">
+        <v>0</v>
+      </c>
+      <c r="O65" s="4">
+        <v>0</v>
+      </c>
+      <c r="P65" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>95</v>
       </c>
@@ -2387,8 +2410,20 @@
       <c r="M66" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66" s="4">
+        <v>0</v>
+      </c>
+      <c r="O66" s="4">
+        <v>0</v>
+      </c>
+      <c r="P66" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>96</v>
       </c>
@@ -2428,8 +2463,20 @@
       <c r="M67" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67" s="4">
+        <v>0</v>
+      </c>
+      <c r="O67" s="4">
+        <v>0</v>
+      </c>
+      <c r="P67" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -2469,8 +2516,20 @@
       <c r="M68" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68" s="4">
+        <v>0</v>
+      </c>
+      <c r="O68" s="4">
+        <v>0</v>
+      </c>
+      <c r="P68" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>98</v>
       </c>
@@ -2510,8 +2569,20 @@
       <c r="M69" s="4">
         <v>0.99839999999999995</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N69" s="4">
+        <v>0</v>
+      </c>
+      <c r="O69" s="4">
+        <v>0</v>
+      </c>
+      <c r="P69" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>99</v>
       </c>
@@ -2551,8 +2622,20 @@
       <c r="M70" s="4">
         <v>1.9594</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70" s="4">
+        <v>0</v>
+      </c>
+      <c r="O70" s="4">
+        <v>0</v>
+      </c>
+      <c r="P70" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>100</v>
       </c>
@@ -2592,8 +2675,20 @@
       <c r="M71" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71" s="4">
+        <v>0</v>
+      </c>
+      <c r="O71" s="4">
+        <v>0</v>
+      </c>
+      <c r="P71" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>101</v>
       </c>
@@ -2633,8 +2728,20 @@
       <c r="M72" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N72" s="4">
+        <v>0</v>
+      </c>
+      <c r="O72" s="4">
+        <v>0</v>
+      </c>
+      <c r="P72" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>102</v>
       </c>
@@ -2674,8 +2781,20 @@
       <c r="M73" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73" s="4">
+        <v>0</v>
+      </c>
+      <c r="O73" s="4">
+        <v>0</v>
+      </c>
+      <c r="P73" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>103</v>
       </c>
@@ -2715,8 +2834,20 @@
       <c r="M74" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74" s="4">
+        <v>0</v>
+      </c>
+      <c r="O74" s="4">
+        <v>0</v>
+      </c>
+      <c r="P74" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>104</v>
       </c>
@@ -2756,8 +2887,20 @@
       <c r="M75" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75" s="4">
+        <v>0</v>
+      </c>
+      <c r="O75" s="4">
+        <v>0</v>
+      </c>
+      <c r="P75" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>105</v>
       </c>
@@ -2797,8 +2940,20 @@
       <c r="M76" s="4">
         <v>1.0013000000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N76" s="4">
+        <v>0</v>
+      </c>
+      <c r="O76" s="4">
+        <v>0</v>
+      </c>
+      <c r="P76" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>106</v>
       </c>
@@ -2838,8 +2993,20 @@
       <c r="M77" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77" s="4">
+        <v>0</v>
+      </c>
+      <c r="O77" s="4">
+        <v>0</v>
+      </c>
+      <c r="P77" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -2879,8 +3046,20 @@
       <c r="M78" s="4">
         <v>8.9960000000000004</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N78" s="4">
+        <v>0</v>
+      </c>
+      <c r="O78" s="4">
+        <v>0</v>
+      </c>
+      <c r="P78" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>108</v>
       </c>
@@ -2920,8 +3099,20 @@
       <c r="M79" s="4">
         <v>9.0021000000000004</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N79" s="4">
+        <v>0</v>
+      </c>
+      <c r="O79" s="4">
+        <v>0</v>
+      </c>
+      <c r="P79" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>109</v>
       </c>
@@ -2961,8 +3152,20 @@
       <c r="M80" s="4">
         <v>2.0015999999999998</v>
       </c>
-    </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="N80" s="4">
+        <v>0</v>
+      </c>
+      <c r="O80" s="4">
+        <v>0</v>
+      </c>
+      <c r="P80" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>110</v>
       </c>
@@ -3002,8 +3205,20 @@
       <c r="M81" s="4">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="N81" s="4">
+        <v>0</v>
+      </c>
+      <c r="O81" s="4">
+        <v>0</v>
+      </c>
+      <c r="P81" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>111</v>
       </c>
@@ -3043,8 +3258,20 @@
       <c r="M82" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="N82" s="4">
+        <v>0</v>
+      </c>
+      <c r="O82" s="4">
+        <v>0</v>
+      </c>
+      <c r="P82" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>112</v>
       </c>
@@ -3084,8 +3311,20 @@
       <c r="M83" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="N83" s="4">
+        <v>0</v>
+      </c>
+      <c r="O83" s="4">
+        <v>0</v>
+      </c>
+      <c r="P83" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>113</v>
       </c>
@@ -3125,8 +3364,20 @@
       <c r="M84" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="N84" s="4">
+        <v>0</v>
+      </c>
+      <c r="O84" s="4">
+        <v>0</v>
+      </c>
+      <c r="P84" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>114</v>
       </c>
@@ -3166,8 +3417,20 @@
       <c r="M85" s="4">
         <v>2.9969999999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="N85" s="4">
+        <v>0</v>
+      </c>
+      <c r="O85" s="4">
+        <v>0</v>
+      </c>
+      <c r="P85" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>115</v>
       </c>
@@ -3207,8 +3470,20 @@
       <c r="M86" s="4">
         <v>1.9850000000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="N86" s="4">
+        <v>0</v>
+      </c>
+      <c r="O86" s="4">
+        <v>0</v>
+      </c>
+      <c r="P86" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>116</v>
       </c>
@@ -3248,8 +3523,20 @@
       <c r="M87" s="4">
         <v>1.0137</v>
       </c>
-    </row>
-    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="N87" s="4">
+        <v>0</v>
+      </c>
+      <c r="O87" s="4">
+        <v>0</v>
+      </c>
+      <c r="P87" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>117</v>
       </c>
@@ -3289,8 +3576,20 @@
       <c r="M88" s="4">
         <v>2.9855999999999998</v>
       </c>
-    </row>
-    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="N88" s="4">
+        <v>0</v>
+      </c>
+      <c r="O88" s="4">
+        <v>0</v>
+      </c>
+      <c r="P88" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>118</v>
       </c>
@@ -3330,8 +3629,20 @@
       <c r="M89" s="4">
         <v>3.0030000000000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="N89" s="4">
+        <v>0</v>
+      </c>
+      <c r="O89" s="4">
+        <v>0</v>
+      </c>
+      <c r="P89" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>119</v>
       </c>
@@ -3371,18 +3682,30 @@
       <c r="M90" s="4">
         <v>8.9951000000000008</v>
       </c>
-    </row>
-    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="N90" s="4">
+        <v>0</v>
+      </c>
+      <c r="O90" s="4">
+        <v>0</v>
+      </c>
+      <c r="P90" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>59</v>
       </c>
@@ -3522,12 +3845,12 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="95" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>120</v>
       </c>
@@ -3664,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>121</v>
       </c>
@@ -3801,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>122</v>
       </c>
@@ -3938,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>123</v>
       </c>
@@ -4075,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>124</v>
       </c>
@@ -4212,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>125</v>
       </c>
@@ -4349,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>126</v>
       </c>
@@ -4486,7 +4809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>127</v>
       </c>
@@ -4623,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>128</v>
       </c>
@@ -4760,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>129</v>
       </c>
@@ -4897,7 +5220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>130</v>
       </c>
@@ -5034,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>131</v>
       </c>
@@ -5171,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>132</v>
       </c>
@@ -5308,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>133</v>
       </c>
@@ -5445,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>134</v>
       </c>
@@ -5582,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>135</v>
       </c>
@@ -5719,7 +6042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>136</v>
       </c>
@@ -5856,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>137</v>
       </c>
@@ -5993,7 +6316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>138</v>
       </c>
@@ -6130,7 +6453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>139</v>
       </c>
@@ -6267,7 +6590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>140</v>
       </c>
@@ -6404,7 +6727,7 @@
         <v>3.8750100000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>141</v>
       </c>
@@ -6541,7 +6864,7 @@
         <v>1.791685</v>
       </c>
     </row>
-    <row r="118" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>142</v>
       </c>
@@ -6678,7 +7001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>143</v>
       </c>
@@ -6815,7 +7138,7 @@
         <v>0.66251099999999996</v>
       </c>
     </row>
-    <row r="120" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>144</v>
       </c>
@@ -6952,7 +7275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>145</v>
       </c>
@@ -7089,7 +7412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>146</v>
       </c>
@@ -7226,7 +7549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>147</v>
       </c>
@@ -7363,7 +7686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>148</v>
       </c>
@@ -7500,7 +7823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>149</v>
       </c>
@@ -7637,7 +7960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>150</v>
       </c>
@@ -7774,122 +8097,122 @@
         <v>1.1606920000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>84</v>
       </c>

--- a/inst/Data_Example.xlsx
+++ b/inst/Data_Example.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="155">
   <si>
     <t>Name</t>
   </si>
@@ -472,6 +472,18 @@
   </si>
   <si>
     <t>CAL 2011</t>
+  </si>
+  <si>
+    <t>Spawning Abundance index</t>
+  </si>
+  <si>
+    <t>CV Spawning Abundance index</t>
+  </si>
+  <si>
+    <t>Vulnerable Abundance index</t>
+  </si>
+  <si>
+    <t>CV Vulnerable Abundance index</t>
   </si>
 </sst>
 </file>
@@ -1330,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK151"/>
+  <dimension ref="A1:BK155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90:Q90"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2194,318 +2206,126 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>93</v>
-      </c>
-      <c r="B64" s="4">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="C64" s="4">
-        <v>0</v>
-      </c>
-      <c r="D64" s="4">
-        <v>2.0001000000000002</v>
-      </c>
-      <c r="E64" s="4">
-        <v>0</v>
-      </c>
-      <c r="F64" s="4">
-        <v>0</v>
-      </c>
-      <c r="G64" s="4">
-        <v>0</v>
-      </c>
-      <c r="H64" s="4">
-        <v>0</v>
-      </c>
-      <c r="I64" s="4">
-        <v>0</v>
-      </c>
-      <c r="J64" s="4">
-        <v>0</v>
-      </c>
-      <c r="K64" s="4">
-        <v>0</v>
-      </c>
-      <c r="L64" s="4">
-        <v>0</v>
-      </c>
-      <c r="M64" s="4">
-        <v>0</v>
-      </c>
-      <c r="N64" s="4">
-        <v>0</v>
-      </c>
-      <c r="O64" s="4">
-        <v>0</v>
-      </c>
-      <c r="P64" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>94</v>
-      </c>
-      <c r="B65" s="4">
-        <v>0</v>
-      </c>
-      <c r="C65" s="4">
-        <v>1</v>
-      </c>
-      <c r="D65" s="4">
-        <v>0</v>
-      </c>
-      <c r="E65" s="4">
-        <v>0</v>
-      </c>
-      <c r="F65" s="4">
-        <v>0</v>
-      </c>
-      <c r="G65" s="4">
-        <v>0</v>
-      </c>
-      <c r="H65" s="4">
-        <v>1</v>
-      </c>
-      <c r="I65" s="4">
-        <v>0</v>
-      </c>
-      <c r="J65" s="4">
-        <v>0</v>
-      </c>
-      <c r="K65" s="4">
-        <v>0</v>
-      </c>
-      <c r="L65" s="4">
-        <v>0</v>
-      </c>
-      <c r="M65" s="4">
-        <v>0</v>
-      </c>
-      <c r="N65" s="4">
-        <v>0</v>
-      </c>
-      <c r="O65" s="4">
-        <v>0</v>
-      </c>
-      <c r="P65" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>95</v>
-      </c>
-      <c r="B66" s="4">
-        <v>0</v>
-      </c>
-      <c r="C66" s="4">
-        <v>3.0007999999999999</v>
-      </c>
-      <c r="D66" s="4">
-        <v>7.0004</v>
-      </c>
-      <c r="E66" s="4">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="F66" s="4">
-        <v>5.9993999999999996</v>
-      </c>
-      <c r="G66" s="4">
-        <v>3.9996</v>
-      </c>
-      <c r="H66" s="4">
-        <v>0</v>
-      </c>
-      <c r="I66" s="4">
-        <v>0</v>
-      </c>
-      <c r="J66" s="4">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="K66" s="4">
-        <v>0</v>
-      </c>
-      <c r="L66" s="4">
-        <v>0</v>
-      </c>
-      <c r="M66" s="4">
-        <v>0</v>
-      </c>
-      <c r="N66" s="4">
-        <v>0</v>
-      </c>
-      <c r="O66" s="4">
-        <v>0</v>
-      </c>
-      <c r="P66" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>96</v>
-      </c>
-      <c r="B67" s="4">
-        <v>1.9998</v>
-      </c>
-      <c r="C67" s="4">
-        <v>9</v>
-      </c>
-      <c r="D67" s="4">
-        <v>0</v>
-      </c>
-      <c r="E67" s="4">
-        <v>1.9998</v>
-      </c>
-      <c r="F67" s="4">
-        <v>0</v>
-      </c>
-      <c r="G67" s="4">
-        <v>3.0005999999999999</v>
-      </c>
-      <c r="H67" s="4">
-        <v>1.9998</v>
-      </c>
-      <c r="I67" s="4">
-        <v>0</v>
-      </c>
-      <c r="J67" s="4">
-        <v>0</v>
-      </c>
-      <c r="K67" s="4">
-        <v>0</v>
-      </c>
-      <c r="L67" s="4">
-        <v>0</v>
-      </c>
-      <c r="M67" s="4">
-        <v>0</v>
-      </c>
-      <c r="N67" s="4">
-        <v>0</v>
-      </c>
-      <c r="O67" s="4">
-        <v>0</v>
-      </c>
-      <c r="P67" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B68" s="4">
-        <v>0</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="C68" s="4">
-        <v>4.9996999999999998</v>
+        <v>0</v>
       </c>
       <c r="D68" s="4">
-        <v>0.99960000000000004</v>
+        <v>2.0001000000000002</v>
       </c>
       <c r="E68" s="4">
-        <v>1.9992000000000001</v>
+        <v>0</v>
       </c>
       <c r="F68" s="4">
-        <v>4.0000999999999998</v>
+        <v>0</v>
       </c>
       <c r="G68" s="4">
-        <v>0.99960000000000004</v>
+        <v>0</v>
       </c>
       <c r="H68" s="4">
-        <v>0.99960000000000004</v>
+        <v>0</v>
       </c>
       <c r="I68" s="4">
-        <v>1.9992000000000001</v>
+        <v>0</v>
       </c>
       <c r="J68" s="4">
-        <v>0.99960000000000004</v>
+        <v>0</v>
       </c>
       <c r="K68" s="4">
         <v>0</v>
@@ -2531,43 +2351,43 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B69" s="4">
         <v>0</v>
       </c>
       <c r="C69" s="4">
-        <v>9.9995999999999992</v>
+        <v>1</v>
       </c>
       <c r="D69" s="4">
-        <v>19.000800000000002</v>
+        <v>0</v>
       </c>
       <c r="E69" s="4">
-        <v>18.002400000000002</v>
+        <v>0</v>
       </c>
       <c r="F69" s="4">
-        <v>4.9997999999999996</v>
+        <v>0</v>
       </c>
       <c r="G69" s="4">
-        <v>6.9965999999999999</v>
+        <v>0</v>
       </c>
       <c r="H69" s="4">
-        <v>4.9997999999999996</v>
+        <v>1</v>
       </c>
       <c r="I69" s="4">
-        <v>5.9981999999999998</v>
+        <v>0</v>
       </c>
       <c r="J69" s="4">
-        <v>5.9981999999999998</v>
+        <v>0</v>
       </c>
       <c r="K69" s="4">
         <v>0</v>
       </c>
       <c r="L69" s="4">
-        <v>0.99839999999999995</v>
+        <v>0</v>
       </c>
       <c r="M69" s="4">
-        <v>0.99839999999999995</v>
+        <v>0</v>
       </c>
       <c r="N69" s="4">
         <v>0</v>
@@ -2584,43 +2404,43 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B70" s="4">
         <v>0</v>
       </c>
       <c r="C70" s="4">
-        <v>0</v>
+        <v>3.0007999999999999</v>
       </c>
       <c r="D70" s="4">
-        <v>49.025399999999998</v>
+        <v>7.0004</v>
       </c>
       <c r="E70" s="4">
-        <v>16.664999999999999</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="F70" s="4">
-        <v>11.766500000000001</v>
+        <v>5.9993999999999996</v>
       </c>
       <c r="G70" s="4">
-        <v>3.9188000000000001</v>
+        <v>3.9996</v>
       </c>
       <c r="H70" s="4">
-        <v>3.9188000000000001</v>
+        <v>0</v>
       </c>
       <c r="I70" s="4">
-        <v>3.9188000000000001</v>
+        <v>0</v>
       </c>
       <c r="J70" s="4">
-        <v>2.9390999999999998</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="K70" s="4">
-        <v>5.8883000000000001</v>
+        <v>0</v>
       </c>
       <c r="L70" s="4">
-        <v>0.97970000000000002</v>
+        <v>0</v>
       </c>
       <c r="M70" s="4">
-        <v>1.9594</v>
+        <v>0</v>
       </c>
       <c r="N70" s="4">
         <v>0</v>
@@ -2637,40 +2457,40 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B71" s="4">
-        <v>0</v>
+        <v>1.9998</v>
       </c>
       <c r="C71" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D71" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" s="4">
-        <v>6</v>
+        <v>1.9998</v>
       </c>
       <c r="F71" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G71" s="4">
-        <v>2</v>
+        <v>3.0005999999999999</v>
       </c>
       <c r="H71" s="4">
-        <v>0</v>
+        <v>1.9998</v>
       </c>
       <c r="I71" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" s="4">
         <v>0</v>
       </c>
       <c r="K71" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L71" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M71" s="4">
         <v>0</v>
@@ -2690,34 +2510,34 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B72" s="4">
         <v>0</v>
       </c>
       <c r="C72" s="4">
-        <v>3</v>
+        <v>4.9996999999999998</v>
       </c>
       <c r="D72" s="4">
-        <v>4</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="E72" s="4">
-        <v>2</v>
+        <v>1.9992000000000001</v>
       </c>
       <c r="F72" s="4">
-        <v>3</v>
+        <v>4.0000999999999998</v>
       </c>
       <c r="G72" s="4">
-        <v>4</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="H72" s="4">
-        <v>4</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="I72" s="4">
-        <v>0</v>
+        <v>1.9992000000000001</v>
       </c>
       <c r="J72" s="4">
-        <v>0</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="K72" s="4">
         <v>0</v>
@@ -2743,43 +2563,43 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B73" s="4">
         <v>0</v>
       </c>
       <c r="C73" s="4">
-        <v>0</v>
+        <v>9.9995999999999992</v>
       </c>
       <c r="D73" s="4">
-        <v>5</v>
+        <v>19.000800000000002</v>
       </c>
       <c r="E73" s="4">
-        <v>1</v>
+        <v>18.002400000000002</v>
       </c>
       <c r="F73" s="4">
-        <v>0</v>
+        <v>4.9997999999999996</v>
       </c>
       <c r="G73" s="4">
-        <v>4</v>
+        <v>6.9965999999999999</v>
       </c>
       <c r="H73" s="4">
-        <v>0</v>
+        <v>4.9997999999999996</v>
       </c>
       <c r="I73" s="4">
-        <v>2</v>
+        <v>5.9981999999999998</v>
       </c>
       <c r="J73" s="4">
-        <v>1</v>
+        <v>5.9981999999999998</v>
       </c>
       <c r="K73" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="4">
-        <v>0</v>
+        <v>0.99839999999999995</v>
       </c>
       <c r="M73" s="4">
-        <v>2</v>
+        <v>0.99839999999999995</v>
       </c>
       <c r="N73" s="4">
         <v>0</v>
@@ -2796,7 +2616,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B74" s="4">
         <v>0</v>
@@ -2805,34 +2625,34 @@
         <v>0</v>
       </c>
       <c r="D74" s="4">
-        <v>1</v>
+        <v>49.025399999999998</v>
       </c>
       <c r="E74" s="4">
-        <v>6</v>
+        <v>16.664999999999999</v>
       </c>
       <c r="F74" s="4">
-        <v>2</v>
+        <v>11.766500000000001</v>
       </c>
       <c r="G74" s="4">
-        <v>1</v>
+        <v>3.9188000000000001</v>
       </c>
       <c r="H74" s="4">
-        <v>2</v>
+        <v>3.9188000000000001</v>
       </c>
       <c r="I74" s="4">
-        <v>1</v>
+        <v>3.9188000000000001</v>
       </c>
       <c r="J74" s="4">
-        <v>0</v>
+        <v>2.9390999999999998</v>
       </c>
       <c r="K74" s="4">
-        <v>0</v>
+        <v>5.8883000000000001</v>
       </c>
       <c r="L74" s="4">
-        <v>1</v>
+        <v>0.97970000000000002</v>
       </c>
       <c r="M74" s="4">
-        <v>2</v>
+        <v>1.9594</v>
       </c>
       <c r="N74" s="4">
         <v>0</v>
@@ -2849,7 +2669,7 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B75" s="4">
         <v>0</v>
@@ -2858,28 +2678,28 @@
         <v>0</v>
       </c>
       <c r="D75" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F75" s="4">
+        <v>3</v>
+      </c>
+      <c r="G75" s="4">
         <v>2</v>
       </c>
-      <c r="G75" s="4">
+      <c r="H75" s="4">
+        <v>0</v>
+      </c>
+      <c r="I75" s="4">
         <v>1</v>
       </c>
-      <c r="H75" s="4">
-        <v>0</v>
-      </c>
-      <c r="I75" s="4">
-        <v>4</v>
-      </c>
       <c r="J75" s="4">
+        <v>0</v>
+      </c>
+      <c r="K75" s="4">
         <v>2</v>
-      </c>
-      <c r="K75" s="4">
-        <v>0</v>
       </c>
       <c r="L75" s="4">
         <v>1</v>
@@ -2902,34 +2722,34 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B76" s="4">
         <v>0</v>
       </c>
       <c r="C76" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D76" s="4">
-        <v>3.9990000000000001</v>
+        <v>4</v>
       </c>
       <c r="E76" s="4">
-        <v>1.0013000000000001</v>
+        <v>2</v>
       </c>
       <c r="F76" s="4">
-        <v>3.9990000000000001</v>
+        <v>3</v>
       </c>
       <c r="G76" s="4">
-        <v>8.9992999999999999</v>
+        <v>4</v>
       </c>
       <c r="H76" s="4">
-        <v>5.9984999999999999</v>
+        <v>4</v>
       </c>
       <c r="I76" s="4">
-        <v>3.0007999999999999</v>
+        <v>0</v>
       </c>
       <c r="J76" s="4">
-        <v>3.0007999999999999</v>
+        <v>0</v>
       </c>
       <c r="K76" s="4">
         <v>0</v>
@@ -2938,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="4">
-        <v>1.0013000000000001</v>
+        <v>0</v>
       </c>
       <c r="N76" s="4">
         <v>0</v>
@@ -2955,43 +2775,43 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B77" s="4">
         <v>0</v>
       </c>
       <c r="C77" s="4">
+        <v>0</v>
+      </c>
+      <c r="D77" s="4">
         <v>5</v>
       </c>
-      <c r="D77" s="4">
+      <c r="E77" s="4">
+        <v>1</v>
+      </c>
+      <c r="F77" s="4">
+        <v>0</v>
+      </c>
+      <c r="G77" s="4">
         <v>4</v>
       </c>
-      <c r="E77" s="4">
+      <c r="H77" s="4">
+        <v>0</v>
+      </c>
+      <c r="I77" s="4">
         <v>2</v>
       </c>
-      <c r="F77" s="4">
+      <c r="J77" s="4">
+        <v>1</v>
+      </c>
+      <c r="K77" s="4">
+        <v>1</v>
+      </c>
+      <c r="L77" s="4">
+        <v>0</v>
+      </c>
+      <c r="M77" s="4">
         <v>2</v>
-      </c>
-      <c r="G77" s="4">
-        <v>2</v>
-      </c>
-      <c r="H77" s="4">
-        <v>1</v>
-      </c>
-      <c r="I77" s="4">
-        <v>0</v>
-      </c>
-      <c r="J77" s="4">
-        <v>2</v>
-      </c>
-      <c r="K77" s="4">
-        <v>0</v>
-      </c>
-      <c r="L77" s="4">
-        <v>2</v>
-      </c>
-      <c r="M77" s="4">
-        <v>0</v>
       </c>
       <c r="N77" s="4">
         <v>0</v>
@@ -3008,43 +2828,43 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B78" s="4">
         <v>0</v>
       </c>
       <c r="C78" s="4">
-        <v>1.0009999999999999</v>
+        <v>0</v>
       </c>
       <c r="D78" s="4">
-        <v>5.0049999999999999</v>
+        <v>1</v>
       </c>
       <c r="E78" s="4">
-        <v>41.002000000000002</v>
+        <v>6</v>
       </c>
       <c r="F78" s="4">
-        <v>6.9939999999999998</v>
+        <v>2</v>
       </c>
       <c r="G78" s="4">
-        <v>33.994999999999997</v>
+        <v>1</v>
       </c>
       <c r="H78" s="4">
-        <v>2.0019999999999998</v>
+        <v>2</v>
       </c>
       <c r="I78" s="4">
-        <v>3.0030000000000001</v>
+        <v>1</v>
       </c>
       <c r="J78" s="4">
-        <v>18.004999999999999</v>
+        <v>0</v>
       </c>
       <c r="K78" s="4">
-        <v>7.9950000000000001</v>
+        <v>0</v>
       </c>
       <c r="L78" s="4">
-        <v>2.0019999999999998</v>
+        <v>1</v>
       </c>
       <c r="M78" s="4">
-        <v>8.9960000000000004</v>
+        <v>2</v>
       </c>
       <c r="N78" s="4">
         <v>0</v>
@@ -3061,43 +2881,43 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B79" s="4">
         <v>0</v>
       </c>
       <c r="C79" s="4">
-        <v>0.999</v>
+        <v>0</v>
       </c>
       <c r="D79" s="4">
-        <v>8.0030999999999999</v>
+        <v>0</v>
       </c>
       <c r="E79" s="4">
-        <v>3.996</v>
+        <v>0</v>
       </c>
       <c r="F79" s="4">
-        <v>24.997199999999999</v>
+        <v>2</v>
       </c>
       <c r="G79" s="4">
-        <v>3.996</v>
+        <v>1</v>
       </c>
       <c r="H79" s="4">
-        <v>31.002300000000002</v>
+        <v>0</v>
       </c>
       <c r="I79" s="4">
-        <v>2.9969999999999999</v>
+        <v>4</v>
       </c>
       <c r="J79" s="4">
-        <v>0.999</v>
+        <v>2</v>
       </c>
       <c r="K79" s="4">
-        <v>12.998100000000001</v>
+        <v>0</v>
       </c>
       <c r="L79" s="4">
-        <v>11.9991</v>
+        <v>1</v>
       </c>
       <c r="M79" s="4">
-        <v>9.0021000000000004</v>
+        <v>0</v>
       </c>
       <c r="N79" s="4">
         <v>0</v>
@@ -3114,3051 +2934,2715 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" s="4">
+        <v>0</v>
+      </c>
+      <c r="C80" s="4">
+        <v>0</v>
+      </c>
+      <c r="D80" s="4">
+        <v>3.9990000000000001</v>
+      </c>
+      <c r="E80" s="4">
+        <v>1.0013000000000001</v>
+      </c>
+      <c r="F80" s="4">
+        <v>3.9990000000000001</v>
+      </c>
+      <c r="G80" s="4">
+        <v>8.9992999999999999</v>
+      </c>
+      <c r="H80" s="4">
+        <v>5.9984999999999999</v>
+      </c>
+      <c r="I80" s="4">
+        <v>3.0007999999999999</v>
+      </c>
+      <c r="J80" s="4">
+        <v>3.0007999999999999</v>
+      </c>
+      <c r="K80" s="4">
+        <v>0</v>
+      </c>
+      <c r="L80" s="4">
+        <v>0</v>
+      </c>
+      <c r="M80" s="4">
+        <v>1.0013000000000001</v>
+      </c>
+      <c r="N80" s="4">
+        <v>0</v>
+      </c>
+      <c r="O80" s="4">
+        <v>0</v>
+      </c>
+      <c r="P80" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81" s="4">
+        <v>0</v>
+      </c>
+      <c r="C81" s="4">
+        <v>5</v>
+      </c>
+      <c r="D81" s="4">
+        <v>4</v>
+      </c>
+      <c r="E81" s="4">
+        <v>2</v>
+      </c>
+      <c r="F81" s="4">
+        <v>2</v>
+      </c>
+      <c r="G81" s="4">
+        <v>2</v>
+      </c>
+      <c r="H81" s="4">
+        <v>1</v>
+      </c>
+      <c r="I81" s="4">
+        <v>0</v>
+      </c>
+      <c r="J81" s="4">
+        <v>2</v>
+      </c>
+      <c r="K81" s="4">
+        <v>0</v>
+      </c>
+      <c r="L81" s="4">
+        <v>2</v>
+      </c>
+      <c r="M81" s="4">
+        <v>0</v>
+      </c>
+      <c r="N81" s="4">
+        <v>0</v>
+      </c>
+      <c r="O81" s="4">
+        <v>0</v>
+      </c>
+      <c r="P81" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" s="4">
+        <v>0</v>
+      </c>
+      <c r="C82" s="4">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D82" s="4">
+        <v>5.0049999999999999</v>
+      </c>
+      <c r="E82" s="4">
+        <v>41.002000000000002</v>
+      </c>
+      <c r="F82" s="4">
+        <v>6.9939999999999998</v>
+      </c>
+      <c r="G82" s="4">
+        <v>33.994999999999997</v>
+      </c>
+      <c r="H82" s="4">
+        <v>2.0019999999999998</v>
+      </c>
+      <c r="I82" s="4">
+        <v>3.0030000000000001</v>
+      </c>
+      <c r="J82" s="4">
+        <v>18.004999999999999</v>
+      </c>
+      <c r="K82" s="4">
+        <v>7.9950000000000001</v>
+      </c>
+      <c r="L82" s="4">
+        <v>2.0019999999999998</v>
+      </c>
+      <c r="M82" s="4">
+        <v>8.9960000000000004</v>
+      </c>
+      <c r="N82" s="4">
+        <v>0</v>
+      </c>
+      <c r="O82" s="4">
+        <v>0</v>
+      </c>
+      <c r="P82" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" s="4">
+        <v>0</v>
+      </c>
+      <c r="C83" s="4">
+        <v>0.999</v>
+      </c>
+      <c r="D83" s="4">
+        <v>8.0030999999999999</v>
+      </c>
+      <c r="E83" s="4">
+        <v>3.996</v>
+      </c>
+      <c r="F83" s="4">
+        <v>24.997199999999999</v>
+      </c>
+      <c r="G83" s="4">
+        <v>3.996</v>
+      </c>
+      <c r="H83" s="4">
+        <v>31.002300000000002</v>
+      </c>
+      <c r="I83" s="4">
+        <v>2.9969999999999999</v>
+      </c>
+      <c r="J83" s="4">
+        <v>0.999</v>
+      </c>
+      <c r="K83" s="4">
+        <v>12.998100000000001</v>
+      </c>
+      <c r="L83" s="4">
+        <v>11.9991</v>
+      </c>
+      <c r="M83" s="4">
+        <v>9.0021000000000004</v>
+      </c>
+      <c r="N83" s="4">
+        <v>0</v>
+      </c>
+      <c r="O83" s="4">
+        <v>0</v>
+      </c>
+      <c r="P83" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>109</v>
       </c>
-      <c r="B80" s="4">
-        <v>0</v>
-      </c>
-      <c r="C80" s="4">
-        <v>0</v>
-      </c>
-      <c r="D80" s="4">
+      <c r="B84" s="4">
+        <v>0</v>
+      </c>
+      <c r="C84" s="4">
+        <v>0</v>
+      </c>
+      <c r="D84" s="4">
         <v>27</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E84" s="4">
         <v>11.0016</v>
       </c>
-      <c r="F80" s="4">
-        <v>0</v>
-      </c>
-      <c r="G80" s="4">
+      <c r="F84" s="4">
+        <v>0</v>
+      </c>
+      <c r="G84" s="4">
         <v>14.9976</v>
       </c>
-      <c r="H80" s="4">
+      <c r="H84" s="4">
         <v>2.0015999999999998</v>
       </c>
-      <c r="I80" s="4">
+      <c r="I84" s="4">
         <v>9</v>
       </c>
-      <c r="J80" s="4">
-        <v>0</v>
-      </c>
-      <c r="K80" s="4">
+      <c r="J84" s="4">
+        <v>0</v>
+      </c>
+      <c r="K84" s="4">
         <v>1.0007999999999999</v>
       </c>
-      <c r="L80" s="4">
+      <c r="L84" s="4">
         <v>4.9968000000000004</v>
       </c>
-      <c r="M80" s="4">
+      <c r="M84" s="4">
         <v>2.0015999999999998</v>
       </c>
-      <c r="N80" s="4">
-        <v>0</v>
-      </c>
-      <c r="O80" s="4">
-        <v>0</v>
-      </c>
-      <c r="P80" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="N84" s="4">
+        <v>0</v>
+      </c>
+      <c r="O84" s="4">
+        <v>0</v>
+      </c>
+      <c r="P84" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>110</v>
       </c>
-      <c r="B81" s="4">
-        <v>0</v>
-      </c>
-      <c r="C81" s="4">
-        <v>0</v>
-      </c>
-      <c r="D81" s="4">
+      <c r="B85" s="4">
+        <v>0</v>
+      </c>
+      <c r="C85" s="4">
+        <v>0</v>
+      </c>
+      <c r="D85" s="4">
         <v>2.9996999999999998</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E85" s="4">
         <v>8.0000999999999998</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F85" s="4">
         <v>2.0007000000000001</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G85" s="4">
         <v>2.0007000000000001</v>
-      </c>
-      <c r="H81" s="4">
-        <v>8.9991000000000003</v>
-      </c>
-      <c r="I81" s="4">
-        <v>0.999</v>
-      </c>
-      <c r="J81" s="4">
-        <v>0.999</v>
-      </c>
-      <c r="K81" s="4">
-        <v>0</v>
-      </c>
-      <c r="L81" s="4">
-        <v>0</v>
-      </c>
-      <c r="M81" s="4">
-        <v>0.999</v>
-      </c>
-      <c r="N81" s="4">
-        <v>0</v>
-      </c>
-      <c r="O81" s="4">
-        <v>0</v>
-      </c>
-      <c r="P81" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>111</v>
-      </c>
-      <c r="B82" s="4">
-        <v>0</v>
-      </c>
-      <c r="C82" s="4">
-        <v>0</v>
-      </c>
-      <c r="D82" s="4">
-        <v>0</v>
-      </c>
-      <c r="E82" s="4">
-        <v>1.0003</v>
-      </c>
-      <c r="F82" s="4">
-        <v>1.9999</v>
-      </c>
-      <c r="G82" s="4">
-        <v>1.0003</v>
-      </c>
-      <c r="H82" s="4">
-        <v>0</v>
-      </c>
-      <c r="I82" s="4">
-        <v>3.0002</v>
-      </c>
-      <c r="J82" s="4">
-        <v>0</v>
-      </c>
-      <c r="K82" s="4">
-        <v>0</v>
-      </c>
-      <c r="L82" s="4">
-        <v>0</v>
-      </c>
-      <c r="M82" s="4">
-        <v>0</v>
-      </c>
-      <c r="N82" s="4">
-        <v>0</v>
-      </c>
-      <c r="O82" s="4">
-        <v>0</v>
-      </c>
-      <c r="P82" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>112</v>
-      </c>
-      <c r="B83" s="4">
-        <v>0</v>
-      </c>
-      <c r="C83" s="4">
-        <v>0</v>
-      </c>
-      <c r="D83" s="4">
-        <v>0</v>
-      </c>
-      <c r="E83" s="4">
-        <v>0</v>
-      </c>
-      <c r="F83" s="4">
-        <v>3.0002</v>
-      </c>
-      <c r="G83" s="4">
-        <v>3.9998</v>
-      </c>
-      <c r="H83" s="4">
-        <v>0</v>
-      </c>
-      <c r="I83" s="4">
-        <v>0</v>
-      </c>
-      <c r="J83" s="4">
-        <v>0</v>
-      </c>
-      <c r="K83" s="4">
-        <v>0</v>
-      </c>
-      <c r="L83" s="4">
-        <v>0</v>
-      </c>
-      <c r="M83" s="4">
-        <v>0</v>
-      </c>
-      <c r="N83" s="4">
-        <v>0</v>
-      </c>
-      <c r="O83" s="4">
-        <v>0</v>
-      </c>
-      <c r="P83" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>113</v>
-      </c>
-      <c r="B84" s="4">
-        <v>0</v>
-      </c>
-      <c r="C84" s="4">
-        <v>4</v>
-      </c>
-      <c r="D84" s="4">
-        <v>32</v>
-      </c>
-      <c r="E84" s="4">
-        <v>18</v>
-      </c>
-      <c r="F84" s="4">
-        <v>18</v>
-      </c>
-      <c r="G84" s="4">
-        <v>22</v>
-      </c>
-      <c r="H84" s="4">
-        <v>23</v>
-      </c>
-      <c r="I84" s="4">
-        <v>0</v>
-      </c>
-      <c r="J84" s="4">
-        <v>6</v>
-      </c>
-      <c r="K84" s="4">
-        <v>2</v>
-      </c>
-      <c r="L84" s="4">
-        <v>0</v>
-      </c>
-      <c r="M84" s="4">
-        <v>0</v>
-      </c>
-      <c r="N84" s="4">
-        <v>0</v>
-      </c>
-      <c r="O84" s="4">
-        <v>0</v>
-      </c>
-      <c r="P84" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>114</v>
-      </c>
-      <c r="B85" s="4">
-        <v>0</v>
-      </c>
-      <c r="C85" s="4">
-        <v>6.9984000000000002</v>
-      </c>
-      <c r="D85" s="4">
-        <v>6.9984000000000002</v>
-      </c>
-      <c r="E85" s="4">
-        <v>26.001000000000001</v>
-      </c>
-      <c r="F85" s="4">
-        <v>10.003500000000001</v>
-      </c>
-      <c r="G85" s="4">
-        <v>11.9961</v>
       </c>
       <c r="H85" s="4">
         <v>8.9991000000000003</v>
       </c>
       <c r="I85" s="4">
+        <v>0.999</v>
+      </c>
+      <c r="J85" s="4">
+        <v>0.999</v>
+      </c>
+      <c r="K85" s="4">
+        <v>0</v>
+      </c>
+      <c r="L85" s="4">
+        <v>0</v>
+      </c>
+      <c r="M85" s="4">
+        <v>0.999</v>
+      </c>
+      <c r="N85" s="4">
+        <v>0</v>
+      </c>
+      <c r="O85" s="4">
+        <v>0</v>
+      </c>
+      <c r="P85" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" s="4">
+        <v>0</v>
+      </c>
+      <c r="C86" s="4">
+        <v>0</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0</v>
+      </c>
+      <c r="E86" s="4">
+        <v>1.0003</v>
+      </c>
+      <c r="F86" s="4">
+        <v>1.9999</v>
+      </c>
+      <c r="G86" s="4">
+        <v>1.0003</v>
+      </c>
+      <c r="H86" s="4">
+        <v>0</v>
+      </c>
+      <c r="I86" s="4">
+        <v>3.0002</v>
+      </c>
+      <c r="J86" s="4">
+        <v>0</v>
+      </c>
+      <c r="K86" s="4">
+        <v>0</v>
+      </c>
+      <c r="L86" s="4">
+        <v>0</v>
+      </c>
+      <c r="M86" s="4">
+        <v>0</v>
+      </c>
+      <c r="N86" s="4">
+        <v>0</v>
+      </c>
+      <c r="O86" s="4">
+        <v>0</v>
+      </c>
+      <c r="P86" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>112</v>
+      </c>
+      <c r="B87" s="4">
+        <v>0</v>
+      </c>
+      <c r="C87" s="4">
+        <v>0</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0</v>
+      </c>
+      <c r="E87" s="4">
+        <v>0</v>
+      </c>
+      <c r="F87" s="4">
+        <v>3.0002</v>
+      </c>
+      <c r="G87" s="4">
+        <v>3.9998</v>
+      </c>
+      <c r="H87" s="4">
+        <v>0</v>
+      </c>
+      <c r="I87" s="4">
+        <v>0</v>
+      </c>
+      <c r="J87" s="4">
+        <v>0</v>
+      </c>
+      <c r="K87" s="4">
+        <v>0</v>
+      </c>
+      <c r="L87" s="4">
+        <v>0</v>
+      </c>
+      <c r="M87" s="4">
+        <v>0</v>
+      </c>
+      <c r="N87" s="4">
+        <v>0</v>
+      </c>
+      <c r="O87" s="4">
+        <v>0</v>
+      </c>
+      <c r="P87" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88" s="4">
+        <v>0</v>
+      </c>
+      <c r="C88" s="4">
+        <v>4</v>
+      </c>
+      <c r="D88" s="4">
+        <v>32</v>
+      </c>
+      <c r="E88" s="4">
+        <v>18</v>
+      </c>
+      <c r="F88" s="4">
+        <v>18</v>
+      </c>
+      <c r="G88" s="4">
+        <v>22</v>
+      </c>
+      <c r="H88" s="4">
+        <v>23</v>
+      </c>
+      <c r="I88" s="4">
+        <v>0</v>
+      </c>
+      <c r="J88" s="4">
+        <v>6</v>
+      </c>
+      <c r="K88" s="4">
+        <v>2</v>
+      </c>
+      <c r="L88" s="4">
+        <v>0</v>
+      </c>
+      <c r="M88" s="4">
+        <v>0</v>
+      </c>
+      <c r="N88" s="4">
+        <v>0</v>
+      </c>
+      <c r="O88" s="4">
+        <v>0</v>
+      </c>
+      <c r="P88" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>114</v>
+      </c>
+      <c r="B89" s="4">
+        <v>0</v>
+      </c>
+      <c r="C89" s="4">
+        <v>6.9984000000000002</v>
+      </c>
+      <c r="D89" s="4">
+        <v>6.9984000000000002</v>
+      </c>
+      <c r="E89" s="4">
+        <v>26.001000000000001</v>
+      </c>
+      <c r="F89" s="4">
+        <v>10.003500000000001</v>
+      </c>
+      <c r="G89" s="4">
+        <v>11.9961</v>
+      </c>
+      <c r="H89" s="4">
+        <v>8.9991000000000003</v>
+      </c>
+      <c r="I89" s="4">
         <v>4.0014000000000003</v>
       </c>
-      <c r="J85" s="4">
+      <c r="J89" s="4">
         <v>0.99629999999999996</v>
       </c>
-      <c r="K85" s="4">
+      <c r="K89" s="4">
         <v>0.99629999999999996</v>
       </c>
-      <c r="L85" s="4">
+      <c r="L89" s="4">
         <v>0.99629999999999996</v>
       </c>
-      <c r="M85" s="4">
+      <c r="M89" s="4">
         <v>2.9969999999999999</v>
       </c>
-      <c r="N85" s="4">
-        <v>0</v>
-      </c>
-      <c r="O85" s="4">
-        <v>0</v>
-      </c>
-      <c r="P85" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+      <c r="N89" s="4">
+        <v>0</v>
+      </c>
+      <c r="O89" s="4">
+        <v>0</v>
+      </c>
+      <c r="P89" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>115</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B90" s="4">
         <v>0.99250000000000005</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C90" s="4">
         <v>4.0096999999999996</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D90" s="4">
         <v>290.00850000000003</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E90" s="4">
         <v>10.0044</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F90" s="4">
         <v>42.995100000000001</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G90" s="4">
         <v>10.9969</v>
       </c>
-      <c r="H86" s="4">
+      <c r="H90" s="4">
         <v>14.014099999999999</v>
       </c>
-      <c r="I86" s="4">
+      <c r="I90" s="4">
         <v>5.9946999999999999</v>
       </c>
-      <c r="J86" s="4">
+      <c r="J90" s="4">
         <v>8.0193999999999992</v>
       </c>
-      <c r="K86" s="4">
+      <c r="K90" s="4">
         <v>3.0171999999999999</v>
       </c>
-      <c r="L86" s="4">
+      <c r="L90" s="4">
         <v>5.0022000000000002</v>
       </c>
-      <c r="M86" s="4">
+      <c r="M90" s="4">
         <v>1.9850000000000001</v>
       </c>
-      <c r="N86" s="4">
-        <v>0</v>
-      </c>
-      <c r="O86" s="4">
-        <v>0</v>
-      </c>
-      <c r="P86" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="N90" s="4">
+        <v>0</v>
+      </c>
+      <c r="O90" s="4">
+        <v>0</v>
+      </c>
+      <c r="P90" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>116</v>
       </c>
-      <c r="B87" s="4">
-        <v>0</v>
-      </c>
-      <c r="C87" s="4">
+      <c r="B91" s="4">
+        <v>0</v>
+      </c>
+      <c r="C91" s="4">
         <v>1.9946999999999999</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D91" s="4">
         <v>49.9983</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E91" s="4">
         <v>199.01220000000001</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F91" s="4">
         <v>6.9977999999999998</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G91" s="4">
         <v>22.007100000000001</v>
       </c>
-      <c r="H87" s="4">
+      <c r="H91" s="4">
         <v>13.0146</v>
       </c>
-      <c r="I87" s="4">
+      <c r="I91" s="4">
         <v>13.9956</v>
       </c>
-      <c r="J87" s="4">
+      <c r="J91" s="4">
         <v>8.9924999999999997</v>
       </c>
-      <c r="K87" s="4">
+      <c r="K91" s="4">
         <v>8.9924999999999997</v>
       </c>
-      <c r="L87" s="4">
+      <c r="L91" s="4">
         <v>1.0137</v>
       </c>
-      <c r="M87" s="4">
+      <c r="M91" s="4">
         <v>1.0137</v>
       </c>
-      <c r="N87" s="4">
-        <v>0</v>
-      </c>
-      <c r="O87" s="4">
-        <v>0</v>
-      </c>
-      <c r="P87" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="N91" s="4">
+        <v>0</v>
+      </c>
+      <c r="O91" s="4">
+        <v>0</v>
+      </c>
+      <c r="P91" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>117</v>
       </c>
-      <c r="B88" s="4">
-        <v>0</v>
-      </c>
-      <c r="C88" s="4">
+      <c r="B92" s="4">
+        <v>0</v>
+      </c>
+      <c r="C92" s="4">
         <v>4.0118999999999998</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D92" s="4">
         <v>37.009</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E92" s="4">
         <v>84.996300000000005</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F92" s="4">
         <v>112.9863</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G92" s="4">
         <v>6.0023</v>
       </c>
-      <c r="H88" s="4">
+      <c r="H92" s="4">
         <v>37.009</v>
       </c>
-      <c r="I88" s="4">
+      <c r="I92" s="4">
         <v>6.0023</v>
       </c>
-      <c r="J88" s="4">
+      <c r="J92" s="4">
         <v>6.0023</v>
       </c>
-      <c r="K88" s="4">
+      <c r="K92" s="4">
         <v>6.9974999999999996</v>
       </c>
-      <c r="L88" s="4">
+      <c r="L92" s="4">
         <v>6.9974999999999996</v>
       </c>
-      <c r="M88" s="4">
+      <c r="M92" s="4">
         <v>2.9855999999999998</v>
       </c>
-      <c r="N88" s="4">
-        <v>0</v>
-      </c>
-      <c r="O88" s="4">
-        <v>0</v>
-      </c>
-      <c r="P88" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+      <c r="N92" s="4">
+        <v>0</v>
+      </c>
+      <c r="O92" s="4">
+        <v>0</v>
+      </c>
+      <c r="P92" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>118</v>
       </c>
-      <c r="B89" s="4">
-        <v>0</v>
-      </c>
-      <c r="C89" s="4">
+      <c r="B93" s="4">
+        <v>0</v>
+      </c>
+      <c r="C93" s="4">
         <v>3.9929999999999999</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D93" s="4">
         <v>81.015000000000001</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E93" s="4">
         <v>59.994</v>
       </c>
-      <c r="F89" s="4">
+      <c r="F93" s="4">
         <v>69.992999999999995</v>
       </c>
-      <c r="G89" s="4">
+      <c r="G93" s="4">
         <v>72.995999999999995</v>
       </c>
-      <c r="H89" s="4">
+      <c r="H93" s="4">
         <v>6.0060000000000002</v>
       </c>
-      <c r="I89" s="4">
+      <c r="I93" s="4">
         <v>22.010999999999999</v>
       </c>
-      <c r="J89" s="4">
+      <c r="J93" s="4">
         <v>9.9990000000000006</v>
       </c>
-      <c r="K89" s="4">
+      <c r="K93" s="4">
         <v>0.99</v>
       </c>
-      <c r="L89" s="4">
-        <v>0</v>
-      </c>
-      <c r="M89" s="4">
+      <c r="L93" s="4">
+        <v>0</v>
+      </c>
+      <c r="M93" s="4">
         <v>3.0030000000000001</v>
       </c>
-      <c r="N89" s="4">
-        <v>0</v>
-      </c>
-      <c r="O89" s="4">
-        <v>0</v>
-      </c>
-      <c r="P89" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+      <c r="N93" s="4">
+        <v>0</v>
+      </c>
+      <c r="O93" s="4">
+        <v>0</v>
+      </c>
+      <c r="P93" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>119</v>
       </c>
-      <c r="B90" s="4">
-        <v>0</v>
-      </c>
-      <c r="C90" s="4">
+      <c r="B94" s="4">
+        <v>0</v>
+      </c>
+      <c r="C94" s="4">
         <v>3.9910000000000001</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D94" s="4">
         <v>55.014400000000002</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E94" s="4">
         <v>76.013199999999998</v>
       </c>
-      <c r="F90" s="4">
+      <c r="F94" s="4">
         <v>48.997199999999999</v>
       </c>
-      <c r="G90" s="4">
+      <c r="G94" s="4">
         <v>45.0062</v>
       </c>
-      <c r="H90" s="4">
+      <c r="H94" s="4">
         <v>45.0062</v>
       </c>
-      <c r="I90" s="4">
+      <c r="I94" s="4">
         <v>3.9910000000000001</v>
       </c>
-      <c r="J90" s="4">
+      <c r="J94" s="4">
         <v>12.9861</v>
       </c>
-      <c r="K90" s="4">
+      <c r="K94" s="4">
         <v>3.9910000000000001</v>
       </c>
-      <c r="L90" s="4">
+      <c r="L94" s="4">
         <v>3.0085999999999999</v>
       </c>
-      <c r="M90" s="4">
+      <c r="M94" s="4">
         <v>8.9951000000000008</v>
       </c>
-      <c r="N90" s="4">
-        <v>0</v>
-      </c>
-      <c r="O90" s="4">
-        <v>0</v>
-      </c>
-      <c r="P90" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
+      <c r="N94" s="4">
+        <v>0</v>
+      </c>
+      <c r="O94" s="4">
+        <v>0</v>
+      </c>
+      <c r="P94" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A93" s="2" t="s">
+    <row r="97" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A97" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+    <row r="98" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>59</v>
       </c>
-      <c r="B94">
+      <c r="B98">
         <v>170</v>
       </c>
-      <c r="C94">
+      <c r="C98">
         <v>200</v>
       </c>
-      <c r="D94">
+      <c r="D98">
         <v>230</v>
       </c>
-      <c r="E94">
+      <c r="E98">
         <v>260</v>
       </c>
-      <c r="F94">
+      <c r="F98">
         <v>290</v>
       </c>
-      <c r="G94">
+      <c r="G98">
         <v>320</v>
       </c>
-      <c r="H94">
+      <c r="H98">
         <v>350</v>
       </c>
-      <c r="I94">
+      <c r="I98">
         <v>380</v>
       </c>
-      <c r="J94">
+      <c r="J98">
         <v>410</v>
       </c>
-      <c r="K94">
+      <c r="K98">
         <v>440</v>
       </c>
-      <c r="L94">
+      <c r="L98">
         <v>470</v>
       </c>
-      <c r="M94">
+      <c r="M98">
         <v>500</v>
       </c>
-      <c r="N94">
+      <c r="N98">
         <v>530</v>
       </c>
-      <c r="O94">
+      <c r="O98">
         <v>560</v>
       </c>
-      <c r="P94">
+      <c r="P98">
         <v>590</v>
       </c>
-      <c r="Q94">
+      <c r="Q98">
         <v>620</v>
       </c>
-      <c r="R94">
+      <c r="R98">
         <v>650</v>
       </c>
-      <c r="S94">
+      <c r="S98">
         <v>680</v>
       </c>
-      <c r="T94">
+      <c r="T98">
         <v>710</v>
       </c>
-      <c r="U94">
+      <c r="U98">
         <v>740</v>
       </c>
-      <c r="V94">
+      <c r="V98">
         <v>770</v>
       </c>
-      <c r="W94">
+      <c r="W98">
         <v>800</v>
       </c>
-      <c r="X94">
+      <c r="X98">
         <v>830</v>
       </c>
-      <c r="Y94">
+      <c r="Y98">
         <v>860</v>
       </c>
-      <c r="Z94">
+      <c r="Z98">
         <v>890</v>
       </c>
-      <c r="AA94">
+      <c r="AA98">
         <v>920</v>
       </c>
-      <c r="AB94">
+      <c r="AB98">
         <v>950</v>
       </c>
-      <c r="AC94">
+      <c r="AC98">
         <v>980</v>
       </c>
-      <c r="AD94">
+      <c r="AD98">
         <v>1010</v>
       </c>
-      <c r="AE94">
+      <c r="AE98">
         <v>1040</v>
       </c>
-      <c r="AF94">
+      <c r="AF98">
         <v>1070</v>
       </c>
-      <c r="AG94">
+      <c r="AG98">
         <v>1100</v>
       </c>
-      <c r="AH94">
+      <c r="AH98">
         <v>1130</v>
       </c>
-      <c r="AI94">
+      <c r="AI98">
         <v>1160</v>
       </c>
-      <c r="AJ94">
+      <c r="AJ98">
         <v>1190</v>
       </c>
-      <c r="AK94">
+      <c r="AK98">
         <v>1220</v>
       </c>
-      <c r="AL94">
+      <c r="AL98">
         <v>1250</v>
       </c>
-      <c r="AM94">
+      <c r="AM98">
         <v>1280</v>
       </c>
-      <c r="AN94">
+      <c r="AN98">
         <v>1310</v>
       </c>
-      <c r="AO94">
+      <c r="AO98">
         <v>1340</v>
       </c>
-      <c r="AP94">
+      <c r="AP98">
         <v>1370</v>
       </c>
-      <c r="AQ94">
+      <c r="AQ98">
         <v>1400</v>
       </c>
-      <c r="AR94">
+      <c r="AR98">
         <v>1430</v>
       </c>
-      <c r="AS94">
+      <c r="AS98">
         <v>1460</v>
       </c>
-      <c r="AT94">
+      <c r="AT98">
         <v>1490</v>
       </c>
     </row>
-    <row r="95" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+    <row r="99" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+    <row r="100" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>120</v>
       </c>
-      <c r="B96" s="4">
-        <v>0</v>
-      </c>
-      <c r="C96" s="4">
-        <v>0</v>
-      </c>
-      <c r="D96" s="4">
-        <v>0</v>
-      </c>
-      <c r="E96" s="4">
-        <v>0</v>
-      </c>
-      <c r="F96" s="4">
-        <v>0</v>
-      </c>
-      <c r="G96" s="4">
-        <v>0</v>
-      </c>
-      <c r="H96" s="4">
-        <v>0</v>
-      </c>
-      <c r="I96" s="4">
+      <c r="B100" s="4">
+        <v>0</v>
+      </c>
+      <c r="C100" s="4">
+        <v>0</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0</v>
+      </c>
+      <c r="E100" s="4">
+        <v>0</v>
+      </c>
+      <c r="F100" s="4">
+        <v>0</v>
+      </c>
+      <c r="G100" s="4">
+        <v>0</v>
+      </c>
+      <c r="H100" s="4">
+        <v>0</v>
+      </c>
+      <c r="I100" s="4">
         <v>0.99999899999999997</v>
       </c>
-      <c r="J96" s="4">
-        <v>0</v>
-      </c>
-      <c r="K96" s="4">
-        <v>0</v>
-      </c>
-      <c r="L96" s="4">
+      <c r="J100" s="4">
+        <v>0</v>
+      </c>
+      <c r="K100" s="4">
+        <v>0</v>
+      </c>
+      <c r="L100" s="4">
         <v>0.99999899999999997</v>
       </c>
-      <c r="M96" s="4">
-        <v>0</v>
-      </c>
-      <c r="N96" s="4">
-        <v>0</v>
-      </c>
-      <c r="O96" s="4">
-        <v>0</v>
-      </c>
-      <c r="P96" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="4">
-        <v>0</v>
-      </c>
-      <c r="R96" s="4">
-        <v>0</v>
-      </c>
-      <c r="S96" s="4">
+      <c r="M100" s="4">
+        <v>0</v>
+      </c>
+      <c r="N100" s="4">
+        <v>0</v>
+      </c>
+      <c r="O100" s="4">
+        <v>0</v>
+      </c>
+      <c r="P100" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="4">
+        <v>0</v>
+      </c>
+      <c r="R100" s="4">
+        <v>0</v>
+      </c>
+      <c r="S100" s="4">
         <v>0.99999899999999997</v>
       </c>
-      <c r="T96" s="4">
-        <v>0</v>
-      </c>
-      <c r="U96" s="4">
-        <v>0</v>
-      </c>
-      <c r="V96" s="4">
-        <v>0</v>
-      </c>
-      <c r="W96" s="4">
-        <v>0</v>
-      </c>
-      <c r="X96" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y96" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z96" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA96" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB96" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC96" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD96" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE96" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF96" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG96" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH96" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI96" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ96" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK96" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL96" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM96" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN96" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO96" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP96" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ96" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR96" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS96" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+      <c r="T100" s="4">
+        <v>0</v>
+      </c>
+      <c r="U100" s="4">
+        <v>0</v>
+      </c>
+      <c r="V100" s="4">
+        <v>0</v>
+      </c>
+      <c r="W100" s="4">
+        <v>0</v>
+      </c>
+      <c r="X100" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS100" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>121</v>
       </c>
-      <c r="B97" s="4">
-        <v>0</v>
-      </c>
-      <c r="C97" s="4">
-        <v>0</v>
-      </c>
-      <c r="D97" s="4">
-        <v>0</v>
-      </c>
-      <c r="E97" s="4">
+      <c r="B101" s="4">
+        <v>0</v>
+      </c>
+      <c r="C101" s="4">
+        <v>0</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0</v>
+      </c>
+      <c r="E101" s="4">
         <v>1.199997</v>
       </c>
-      <c r="F97" s="4">
-        <v>0</v>
-      </c>
-      <c r="G97" s="4">
-        <v>0</v>
-      </c>
-      <c r="H97" s="4">
-        <v>0</v>
-      </c>
-      <c r="I97" s="4">
+      <c r="F101" s="4">
+        <v>0</v>
+      </c>
+      <c r="G101" s="4">
+        <v>0</v>
+      </c>
+      <c r="H101" s="4">
+        <v>0</v>
+      </c>
+      <c r="I101" s="4">
         <v>1.199997</v>
       </c>
-      <c r="J97" s="4">
-        <v>0</v>
-      </c>
-      <c r="K97" s="4">
+      <c r="J101" s="4">
+        <v>0</v>
+      </c>
+      <c r="K101" s="4">
         <v>1.199997</v>
       </c>
-      <c r="L97" s="4">
-        <v>0</v>
-      </c>
-      <c r="M97" s="4">
-        <v>0</v>
-      </c>
-      <c r="N97" s="4">
-        <v>0</v>
-      </c>
-      <c r="O97" s="4">
+      <c r="L101" s="4">
+        <v>0</v>
+      </c>
+      <c r="M101" s="4">
+        <v>0</v>
+      </c>
+      <c r="N101" s="4">
+        <v>0</v>
+      </c>
+      <c r="O101" s="4">
         <v>1.199997</v>
       </c>
-      <c r="P97" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="4">
-        <v>0</v>
-      </c>
-      <c r="R97" s="4">
-        <v>0</v>
-      </c>
-      <c r="S97" s="4">
+      <c r="P101" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="4">
+        <v>0</v>
+      </c>
+      <c r="R101" s="4">
+        <v>0</v>
+      </c>
+      <c r="S101" s="4">
         <v>1.500003</v>
       </c>
-      <c r="T97" s="4">
-        <v>0</v>
-      </c>
-      <c r="U97" s="4">
-        <v>0</v>
-      </c>
-      <c r="V97" s="4">
-        <v>0</v>
-      </c>
-      <c r="W97" s="4">
-        <v>0</v>
-      </c>
-      <c r="X97" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y97" s="4">
+      <c r="T101" s="4">
+        <v>0</v>
+      </c>
+      <c r="U101" s="4">
+        <v>0</v>
+      </c>
+      <c r="V101" s="4">
+        <v>0</v>
+      </c>
+      <c r="W101" s="4">
+        <v>0</v>
+      </c>
+      <c r="X101" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="4">
         <v>0.74999700000000002</v>
       </c>
-      <c r="Z97" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA97" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB97" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC97" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD97" s="4">
+      <c r="Z101" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="4">
         <v>0.60000299999999995</v>
       </c>
-      <c r="AE97" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF97" s="4">
+      <c r="AE101" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="4">
         <v>0.60000299999999995</v>
       </c>
-      <c r="AG97" s="4">
+      <c r="AG101" s="4">
         <v>0.74999700000000002</v>
       </c>
-      <c r="AH97" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI97" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ97" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK97" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL97" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM97" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN97" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO97" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP97" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ97" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR97" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS97" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+      <c r="AH101" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI101" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ101" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK101" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL101" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM101" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN101" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO101" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP101" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ101" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR101" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS101" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>122</v>
       </c>
-      <c r="B98" s="4">
-        <v>0</v>
-      </c>
-      <c r="C98" s="4">
-        <v>0</v>
-      </c>
-      <c r="D98" s="4">
-        <v>0</v>
-      </c>
-      <c r="E98" s="4">
-        <v>0</v>
-      </c>
-      <c r="F98" s="4">
-        <v>0</v>
-      </c>
-      <c r="G98" s="4">
-        <v>0</v>
-      </c>
-      <c r="H98" s="4">
-        <v>0</v>
-      </c>
-      <c r="I98" s="4">
-        <v>0</v>
-      </c>
-      <c r="J98" s="4">
-        <v>0</v>
-      </c>
-      <c r="K98" s="4">
-        <v>0</v>
-      </c>
-      <c r="L98" s="4">
-        <v>0</v>
-      </c>
-      <c r="M98" s="4">
-        <v>0</v>
-      </c>
-      <c r="N98" s="4">
-        <v>0</v>
-      </c>
-      <c r="O98" s="4">
-        <v>0</v>
-      </c>
-      <c r="P98" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="4">
-        <v>0</v>
-      </c>
-      <c r="R98" s="4">
-        <v>0</v>
-      </c>
-      <c r="S98" s="4">
-        <v>0</v>
-      </c>
-      <c r="T98" s="4">
-        <v>0</v>
-      </c>
-      <c r="U98" s="4">
-        <v>0</v>
-      </c>
-      <c r="V98" s="4">
-        <v>0</v>
-      </c>
-      <c r="W98" s="4">
+      <c r="B102" s="4">
+        <v>0</v>
+      </c>
+      <c r="C102" s="4">
+        <v>0</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0</v>
+      </c>
+      <c r="E102" s="4">
+        <v>0</v>
+      </c>
+      <c r="F102" s="4">
+        <v>0</v>
+      </c>
+      <c r="G102" s="4">
+        <v>0</v>
+      </c>
+      <c r="H102" s="4">
+        <v>0</v>
+      </c>
+      <c r="I102" s="4">
+        <v>0</v>
+      </c>
+      <c r="J102" s="4">
+        <v>0</v>
+      </c>
+      <c r="K102" s="4">
+        <v>0</v>
+      </c>
+      <c r="L102" s="4">
+        <v>0</v>
+      </c>
+      <c r="M102" s="4">
+        <v>0</v>
+      </c>
+      <c r="N102" s="4">
+        <v>0</v>
+      </c>
+      <c r="O102" s="4">
+        <v>0</v>
+      </c>
+      <c r="P102" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="4">
+        <v>0</v>
+      </c>
+      <c r="R102" s="4">
+        <v>0</v>
+      </c>
+      <c r="S102" s="4">
+        <v>0</v>
+      </c>
+      <c r="T102" s="4">
+        <v>0</v>
+      </c>
+      <c r="U102" s="4">
+        <v>0</v>
+      </c>
+      <c r="V102" s="4">
+        <v>0</v>
+      </c>
+      <c r="W102" s="4">
         <v>1.333332</v>
       </c>
-      <c r="X98" s="4">
+      <c r="X102" s="4">
         <v>0.66666599999999998</v>
       </c>
-      <c r="Y98" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z98" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA98" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB98" s="4">
+      <c r="Y102" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="4">
         <v>1.0000020000000001</v>
       </c>
-      <c r="AC98" s="4">
+      <c r="AC102" s="4">
         <v>1.9999979999999999</v>
       </c>
-      <c r="AD98" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE98" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF98" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG98" s="4">
+      <c r="AD102" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG102" s="4">
         <v>1.0000020000000001</v>
       </c>
-      <c r="AH98" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI98" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ98" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK98" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL98" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM98" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN98" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO98" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP98" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ98" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR98" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS98" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="AH102" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI102" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ102" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK102" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL102" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM102" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN102" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO102" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP102" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ102" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR102" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>123</v>
       </c>
-      <c r="B99" s="4">
-        <v>0</v>
-      </c>
-      <c r="C99" s="4">
-        <v>0</v>
-      </c>
-      <c r="D99" s="4">
-        <v>0</v>
-      </c>
-      <c r="E99" s="4">
-        <v>0</v>
-      </c>
-      <c r="F99" s="4">
-        <v>0</v>
-      </c>
-      <c r="G99" s="4">
-        <v>0</v>
-      </c>
-      <c r="H99" s="4">
-        <v>0</v>
-      </c>
-      <c r="I99" s="4">
-        <v>0</v>
-      </c>
-      <c r="J99" s="4">
-        <v>0</v>
-      </c>
-      <c r="K99" s="4">
-        <v>0</v>
-      </c>
-      <c r="L99" s="4">
-        <v>0</v>
-      </c>
-      <c r="M99" s="4">
-        <v>0</v>
-      </c>
-      <c r="N99" s="4">
-        <v>0</v>
-      </c>
-      <c r="O99" s="4">
-        <v>0</v>
-      </c>
-      <c r="P99" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="4">
-        <v>0</v>
-      </c>
-      <c r="R99" s="4">
-        <v>0</v>
-      </c>
-      <c r="S99" s="4">
-        <v>0</v>
-      </c>
-      <c r="T99" s="4">
-        <v>0</v>
-      </c>
-      <c r="U99" s="4">
+      <c r="B103" s="4">
+        <v>0</v>
+      </c>
+      <c r="C103" s="4">
+        <v>0</v>
+      </c>
+      <c r="D103" s="4">
+        <v>0</v>
+      </c>
+      <c r="E103" s="4">
+        <v>0</v>
+      </c>
+      <c r="F103" s="4">
+        <v>0</v>
+      </c>
+      <c r="G103" s="4">
+        <v>0</v>
+      </c>
+      <c r="H103" s="4">
+        <v>0</v>
+      </c>
+      <c r="I103" s="4">
+        <v>0</v>
+      </c>
+      <c r="J103" s="4">
+        <v>0</v>
+      </c>
+      <c r="K103" s="4">
+        <v>0</v>
+      </c>
+      <c r="L103" s="4">
+        <v>0</v>
+      </c>
+      <c r="M103" s="4">
+        <v>0</v>
+      </c>
+      <c r="N103" s="4">
+        <v>0</v>
+      </c>
+      <c r="O103" s="4">
+        <v>0</v>
+      </c>
+      <c r="P103" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="4">
+        <v>0</v>
+      </c>
+      <c r="R103" s="4">
+        <v>0</v>
+      </c>
+      <c r="S103" s="4">
+        <v>0</v>
+      </c>
+      <c r="T103" s="4">
+        <v>0</v>
+      </c>
+      <c r="U103" s="4">
         <v>3.6</v>
       </c>
-      <c r="V99" s="4">
-        <v>0</v>
-      </c>
-      <c r="W99" s="4">
-        <v>0</v>
-      </c>
-      <c r="X99" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y99" s="4">
+      <c r="V103" s="4">
+        <v>0</v>
+      </c>
+      <c r="W103" s="4">
+        <v>0</v>
+      </c>
+      <c r="X103" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y103" s="4">
         <v>2.25</v>
       </c>
-      <c r="Z99" s="4">
+      <c r="Z103" s="4">
         <v>0.6</v>
       </c>
-      <c r="AA99" s="4">
+      <c r="AA103" s="4">
         <v>0.9</v>
       </c>
-      <c r="AB99" s="4">
+      <c r="AB103" s="4">
         <v>2.25</v>
       </c>
-      <c r="AC99" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD99" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE99" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF99" s="4">
+      <c r="AC103" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD103" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE103" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF103" s="4">
         <v>1.5</v>
       </c>
-      <c r="AG99" s="4">
+      <c r="AG103" s="4">
         <v>0.9</v>
       </c>
-      <c r="AH99" s="4">
+      <c r="AH103" s="4">
         <v>0.9</v>
       </c>
-      <c r="AI99" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ99" s="4">
+      <c r="AI103" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ103" s="4">
         <v>0.6</v>
       </c>
-      <c r="AK99" s="4">
+      <c r="AK103" s="4">
         <v>1.5</v>
       </c>
-      <c r="AL99" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM99" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN99" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO99" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP99" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ99" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR99" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS99" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="AL103" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM103" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN103" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO103" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP103" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ103" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR103" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>124</v>
       </c>
-      <c r="B100" s="4">
-        <v>0</v>
-      </c>
-      <c r="C100" s="4">
-        <v>0</v>
-      </c>
-      <c r="D100" s="4">
-        <v>0</v>
-      </c>
-      <c r="E100" s="4">
-        <v>0</v>
-      </c>
-      <c r="F100" s="4">
-        <v>0</v>
-      </c>
-      <c r="G100" s="4">
-        <v>0</v>
-      </c>
-      <c r="H100" s="4">
-        <v>0</v>
-      </c>
-      <c r="I100" s="4">
-        <v>0</v>
-      </c>
-      <c r="J100" s="4">
+      <c r="B104" s="4">
+        <v>0</v>
+      </c>
+      <c r="C104" s="4">
+        <v>0</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0</v>
+      </c>
+      <c r="E104" s="4">
+        <v>0</v>
+      </c>
+      <c r="F104" s="4">
+        <v>0</v>
+      </c>
+      <c r="G104" s="4">
+        <v>0</v>
+      </c>
+      <c r="H104" s="4">
+        <v>0</v>
+      </c>
+      <c r="I104" s="4">
+        <v>0</v>
+      </c>
+      <c r="J104" s="4">
         <v>2.5555500000000002</v>
       </c>
-      <c r="K100" s="4">
-        <v>0</v>
-      </c>
-      <c r="L100" s="4">
-        <v>0</v>
-      </c>
-      <c r="M100" s="4">
-        <v>0</v>
-      </c>
-      <c r="N100" s="4">
-        <v>0</v>
-      </c>
-      <c r="O100" s="4">
-        <v>0</v>
-      </c>
-      <c r="P100" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="4">
-        <v>0</v>
-      </c>
-      <c r="R100" s="4">
+      <c r="K104" s="4">
+        <v>0</v>
+      </c>
+      <c r="L104" s="4">
+        <v>0</v>
+      </c>
+      <c r="M104" s="4">
+        <v>0</v>
+      </c>
+      <c r="N104" s="4">
+        <v>0</v>
+      </c>
+      <c r="O104" s="4">
+        <v>0</v>
+      </c>
+      <c r="P104" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="4">
+        <v>0</v>
+      </c>
+      <c r="R104" s="4">
         <v>0.77778000000000003</v>
       </c>
-      <c r="S100" s="4">
-        <v>0</v>
-      </c>
-      <c r="T100" s="4">
-        <v>0</v>
-      </c>
-      <c r="U100" s="4">
-        <v>0</v>
-      </c>
-      <c r="V100" s="4">
+      <c r="S104" s="4">
+        <v>0</v>
+      </c>
+      <c r="T104" s="4">
+        <v>0</v>
+      </c>
+      <c r="U104" s="4">
+        <v>0</v>
+      </c>
+      <c r="V104" s="4">
         <v>0.73016999999999999</v>
       </c>
-      <c r="W100" s="4">
+      <c r="W104" s="4">
         <v>2.92062</v>
       </c>
-      <c r="X100" s="4">
+      <c r="X104" s="4">
         <v>4.6851900000000004</v>
       </c>
-      <c r="Y100" s="4">
+      <c r="Y104" s="4">
         <v>1.5555600000000001</v>
       </c>
-      <c r="Z100" s="4">
+      <c r="Z104" s="4">
         <v>1.27779</v>
       </c>
-      <c r="AA100" s="4">
+      <c r="AA104" s="4">
         <v>4.0635000000000003</v>
       </c>
-      <c r="AB100" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC100" s="4">
+      <c r="AB104" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC104" s="4">
         <v>0.77778000000000003</v>
       </c>
-      <c r="AD100" s="4">
+      <c r="AD104" s="4">
         <v>2.8444500000000001</v>
       </c>
-      <c r="AE100" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF100" s="4">
+      <c r="AE104" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF104" s="4">
         <v>3.7725</v>
       </c>
-      <c r="AG100" s="4">
+      <c r="AG104" s="4">
         <v>0.51110999999999995</v>
       </c>
-      <c r="AH100" s="4">
+      <c r="AH104" s="4">
         <v>0.77778000000000003</v>
       </c>
-      <c r="AI100" s="4">
+      <c r="AI104" s="4">
         <v>0.85185</v>
       </c>
-      <c r="AJ100" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK100" s="4">
+      <c r="AJ104" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK104" s="4">
         <v>1.0222199999999999</v>
       </c>
-      <c r="AL100" s="4">
+      <c r="AL104" s="4">
         <v>0.51110999999999995</v>
       </c>
-      <c r="AM100" s="4">
+      <c r="AM104" s="4">
         <v>0.36507000000000001</v>
       </c>
-      <c r="AN100" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO100" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP100" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ100" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR100" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS100" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="AN104" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO104" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP104" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ104" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR104" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>125</v>
       </c>
-      <c r="B101" s="4">
-        <v>0</v>
-      </c>
-      <c r="C101" s="4">
-        <v>0</v>
-      </c>
-      <c r="D101" s="4">
-        <v>0</v>
-      </c>
-      <c r="E101" s="4">
-        <v>0</v>
-      </c>
-      <c r="F101" s="4">
-        <v>0</v>
-      </c>
-      <c r="G101" s="4">
-        <v>0</v>
-      </c>
-      <c r="H101" s="4">
-        <v>0</v>
-      </c>
-      <c r="I101" s="4">
-        <v>0</v>
-      </c>
-      <c r="J101" s="4">
-        <v>0</v>
-      </c>
-      <c r="K101" s="4">
-        <v>0</v>
-      </c>
-      <c r="L101" s="4">
+      <c r="B105" s="4">
+        <v>0</v>
+      </c>
+      <c r="C105" s="4">
+        <v>0</v>
+      </c>
+      <c r="D105" s="4">
+        <v>0</v>
+      </c>
+      <c r="E105" s="4">
+        <v>0</v>
+      </c>
+      <c r="F105" s="4">
+        <v>0</v>
+      </c>
+      <c r="G105" s="4">
+        <v>0</v>
+      </c>
+      <c r="H105" s="4">
+        <v>0</v>
+      </c>
+      <c r="I105" s="4">
+        <v>0</v>
+      </c>
+      <c r="J105" s="4">
+        <v>0</v>
+      </c>
+      <c r="K105" s="4">
+        <v>0</v>
+      </c>
+      <c r="L105" s="4">
         <v>0.90278199999999997</v>
       </c>
-      <c r="M101" s="4">
+      <c r="M105" s="4">
         <v>1.851847</v>
       </c>
-      <c r="N101" s="4">
-        <v>0</v>
-      </c>
-      <c r="O101" s="4">
-        <v>0</v>
-      </c>
-      <c r="P101" s="4">
+      <c r="N105" s="4">
+        <v>0</v>
+      </c>
+      <c r="O105" s="4">
+        <v>0</v>
+      </c>
+      <c r="P105" s="4">
         <v>3.703694</v>
       </c>
-      <c r="Q101" s="4">
-        <v>0</v>
-      </c>
-      <c r="R101" s="4">
-        <v>0</v>
-      </c>
-      <c r="S101" s="4">
-        <v>0</v>
-      </c>
-      <c r="T101" s="4">
-        <v>0</v>
-      </c>
-      <c r="U101" s="4">
-        <v>0</v>
-      </c>
-      <c r="V101" s="4">
+      <c r="Q105" s="4">
+        <v>0</v>
+      </c>
+      <c r="R105" s="4">
+        <v>0</v>
+      </c>
+      <c r="S105" s="4">
+        <v>0</v>
+      </c>
+      <c r="T105" s="4">
+        <v>0</v>
+      </c>
+      <c r="U105" s="4">
+        <v>0</v>
+      </c>
+      <c r="V105" s="4">
         <v>1.5555490000000001</v>
       </c>
-      <c r="W101" s="4">
+      <c r="W105" s="4">
         <v>1.3333410000000001</v>
       </c>
-      <c r="X101" s="4">
+      <c r="X105" s="4">
         <v>0.666655</v>
       </c>
-      <c r="Y101" s="4">
+      <c r="Y105" s="4">
         <v>4.291671</v>
       </c>
-      <c r="Z101" s="4">
+      <c r="Z105" s="4">
         <v>0.55555100000000002</v>
       </c>
-      <c r="AA101" s="4">
+      <c r="AA105" s="4">
         <v>0.69443100000000002</v>
       </c>
-      <c r="AB101" s="4">
+      <c r="AB105" s="4">
         <v>2.0833240000000002</v>
       </c>
-      <c r="AC101" s="4">
+      <c r="AC105" s="4">
         <v>2.7777859999999999</v>
       </c>
-      <c r="AD101" s="4">
+      <c r="AD105" s="4">
         <v>0.99999800000000005</v>
       </c>
-      <c r="AE101" s="4">
+      <c r="AE105" s="4">
         <v>0.55555100000000002</v>
       </c>
-      <c r="AF101" s="4">
+      <c r="AF105" s="4">
         <v>0.69443100000000002</v>
       </c>
-      <c r="AG101" s="4">
+      <c r="AG105" s="4">
         <v>2.7777859999999999</v>
       </c>
-      <c r="AH101" s="4">
+      <c r="AH105" s="4">
         <v>2.7777859999999999</v>
       </c>
-      <c r="AI101" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ101" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK101" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL101" s="4">
+      <c r="AI105" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ105" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK105" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL105" s="4">
         <v>2.7777859999999999</v>
       </c>
-      <c r="AM101" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN101" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO101" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP101" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ101" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR101" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS101" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="AM105" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN105" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO105" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP105" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ105" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR105" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>126</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B106" s="4">
         <v>2.249984</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C106" s="4">
         <v>0.562496</v>
       </c>
-      <c r="D102" s="4">
-        <v>0</v>
-      </c>
-      <c r="E102" s="4">
-        <v>0</v>
-      </c>
-      <c r="F102" s="4">
-        <v>0</v>
-      </c>
-      <c r="G102" s="4">
+      <c r="D106" s="4">
+        <v>0</v>
+      </c>
+      <c r="E106" s="4">
+        <v>0</v>
+      </c>
+      <c r="F106" s="4">
+        <v>0</v>
+      </c>
+      <c r="G106" s="4">
         <v>2.249984</v>
       </c>
-      <c r="H102" s="4">
-        <v>0</v>
-      </c>
-      <c r="I102" s="4">
-        <v>0</v>
-      </c>
-      <c r="J102" s="4">
-        <v>0</v>
-      </c>
-      <c r="K102" s="4">
-        <v>0</v>
-      </c>
-      <c r="L102" s="4">
-        <v>0</v>
-      </c>
-      <c r="M102" s="4">
+      <c r="H106" s="4">
+        <v>0</v>
+      </c>
+      <c r="I106" s="4">
+        <v>0</v>
+      </c>
+      <c r="J106" s="4">
+        <v>0</v>
+      </c>
+      <c r="K106" s="4">
+        <v>0</v>
+      </c>
+      <c r="L106" s="4">
+        <v>0</v>
+      </c>
+      <c r="M106" s="4">
         <v>2.8125140000000002</v>
       </c>
-      <c r="N102" s="4">
-        <v>0</v>
-      </c>
-      <c r="O102" s="4">
-        <v>0</v>
-      </c>
-      <c r="P102" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="4">
+      <c r="N106" s="4">
+        <v>0</v>
+      </c>
+      <c r="O106" s="4">
+        <v>0</v>
+      </c>
+      <c r="P106" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="4">
         <v>1.124992</v>
       </c>
-      <c r="R102" s="4">
+      <c r="R106" s="4">
         <v>2.249984</v>
       </c>
-      <c r="S102" s="4">
-        <v>0</v>
-      </c>
-      <c r="T102" s="4">
-        <v>0</v>
-      </c>
-      <c r="U102" s="4">
-        <v>0</v>
-      </c>
-      <c r="V102" s="4">
+      <c r="S106" s="4">
+        <v>0</v>
+      </c>
+      <c r="T106" s="4">
+        <v>0</v>
+      </c>
+      <c r="U106" s="4">
+        <v>0</v>
+      </c>
+      <c r="V106" s="4">
         <v>0.43751200000000001</v>
       </c>
-      <c r="W102" s="4">
+      <c r="W106" s="4">
         <v>1.124992</v>
       </c>
-      <c r="X102" s="4">
+      <c r="X106" s="4">
         <v>2.249984</v>
       </c>
-      <c r="Y102" s="4">
+      <c r="Y106" s="4">
         <v>3.9999980000000002</v>
       </c>
-      <c r="Z102" s="4">
+      <c r="Z106" s="4">
         <v>1.5625039999999999</v>
       </c>
-      <c r="AA102" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB102" s="4">
+      <c r="AA106" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB106" s="4">
         <v>3.1250079999999998</v>
       </c>
-      <c r="AC102" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD102" s="4">
+      <c r="AC106" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD106" s="4">
         <v>1.2500100000000001</v>
       </c>
-      <c r="AE102" s="4">
+      <c r="AE106" s="4">
         <v>3.1875</v>
       </c>
-      <c r="AF102" s="4">
+      <c r="AF106" s="4">
         <v>1.187484</v>
       </c>
-      <c r="AG102" s="4">
+      <c r="AG106" s="4">
         <v>0.562496</v>
       </c>
-      <c r="AH102" s="4">
+      <c r="AH106" s="4">
         <v>0.250002</v>
       </c>
-      <c r="AI102" s="4">
+      <c r="AI106" s="4">
         <v>0.81249800000000005</v>
       </c>
-      <c r="AJ102" s="4">
+      <c r="AJ106" s="4">
         <v>0.75000599999999995</v>
       </c>
-      <c r="AK102" s="4">
+      <c r="AK106" s="4">
         <v>2.249984</v>
       </c>
-      <c r="AL102" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM102" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN102" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO102" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP102" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ102" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR102" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS102" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="AL106" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM106" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN106" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO106" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP106" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ106" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR106" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS106" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>127</v>
       </c>
-      <c r="B103" s="4">
-        <v>0</v>
-      </c>
-      <c r="C103" s="4">
-        <v>0</v>
-      </c>
-      <c r="D103" s="4">
-        <v>0</v>
-      </c>
-      <c r="E103" s="4">
-        <v>0</v>
-      </c>
-      <c r="F103" s="4">
-        <v>0</v>
-      </c>
-      <c r="G103" s="4">
-        <v>0</v>
-      </c>
-      <c r="H103" s="4">
-        <v>0</v>
-      </c>
-      <c r="I103" s="4">
+      <c r="B107" s="4">
+        <v>0</v>
+      </c>
+      <c r="C107" s="4">
+        <v>0</v>
+      </c>
+      <c r="D107" s="4">
+        <v>0</v>
+      </c>
+      <c r="E107" s="4">
+        <v>0</v>
+      </c>
+      <c r="F107" s="4">
+        <v>0</v>
+      </c>
+      <c r="G107" s="4">
+        <v>0</v>
+      </c>
+      <c r="H107" s="4">
+        <v>0</v>
+      </c>
+      <c r="I107" s="4">
         <v>0.78572600000000004</v>
       </c>
-      <c r="J103" s="4">
-        <v>0</v>
-      </c>
-      <c r="K103" s="4">
+      <c r="J107" s="4">
+        <v>0</v>
+      </c>
+      <c r="K107" s="4">
         <v>0.78572600000000004</v>
       </c>
-      <c r="L103" s="4">
-        <v>0</v>
-      </c>
-      <c r="M103" s="4">
-        <v>0</v>
-      </c>
-      <c r="N103" s="4">
-        <v>0</v>
-      </c>
-      <c r="O103" s="4">
-        <v>0</v>
-      </c>
-      <c r="P103" s="4">
+      <c r="L107" s="4">
+        <v>0</v>
+      </c>
+      <c r="M107" s="4">
+        <v>0</v>
+      </c>
+      <c r="N107" s="4">
+        <v>0</v>
+      </c>
+      <c r="O107" s="4">
+        <v>0</v>
+      </c>
+      <c r="P107" s="4">
         <v>0.46666800000000003</v>
       </c>
-      <c r="Q103" s="4">
-        <v>0</v>
-      </c>
-      <c r="R103" s="4">
-        <v>0</v>
-      </c>
-      <c r="S103" s="4">
-        <v>0</v>
-      </c>
-      <c r="T103" s="4">
+      <c r="Q107" s="4">
+        <v>0</v>
+      </c>
+      <c r="R107" s="4">
+        <v>0</v>
+      </c>
+      <c r="S107" s="4">
+        <v>0</v>
+      </c>
+      <c r="T107" s="4">
         <v>0.78572600000000004</v>
       </c>
-      <c r="U103" s="4">
+      <c r="U107" s="4">
         <v>3.1190370000000001</v>
       </c>
-      <c r="V103" s="4">
+      <c r="V107" s="4">
         <v>0.78572600000000004</v>
       </c>
-      <c r="W103" s="4">
+      <c r="W107" s="4">
         <v>4.3952400000000003</v>
       </c>
-      <c r="X103" s="4">
+      <c r="X107" s="4">
         <v>3.6095139999999999</v>
       </c>
-      <c r="Y103" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z103" s="4">
+      <c r="Y107" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z107" s="4">
         <v>3.142846</v>
       </c>
-      <c r="AA103" s="4">
+      <c r="AA107" s="4">
         <v>2.3333400000000002</v>
       </c>
-      <c r="AB103" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC103" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD103" s="4">
+      <c r="AB107" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC107" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD107" s="4">
         <v>1.252394</v>
       </c>
-      <c r="AE103" s="4">
+      <c r="AE107" s="4">
         <v>0.78572600000000004</v>
       </c>
-      <c r="AF103" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG103" s="4">
+      <c r="AF107" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG107" s="4">
         <v>1.252394</v>
       </c>
-      <c r="AH103" s="4">
+      <c r="AH107" s="4">
         <v>0.78572600000000004</v>
       </c>
-      <c r="AI103" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ103" s="4">
+      <c r="AI107" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ107" s="4">
         <v>3.142846</v>
       </c>
-      <c r="AK103" s="4">
+      <c r="AK107" s="4">
         <v>1.571423</v>
       </c>
-      <c r="AL103" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM103" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN103" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO103" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP103" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ103" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR103" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS103" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+      <c r="AL107" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM107" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN107" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO107" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP107" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ107" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR107" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>128</v>
       </c>
-      <c r="B104" s="4">
-        <v>0</v>
-      </c>
-      <c r="C104" s="4">
-        <v>0</v>
-      </c>
-      <c r="D104" s="4">
-        <v>0</v>
-      </c>
-      <c r="E104" s="4">
+      <c r="B108" s="4">
+        <v>0</v>
+      </c>
+      <c r="C108" s="4">
+        <v>0</v>
+      </c>
+      <c r="D108" s="4">
+        <v>0</v>
+      </c>
+      <c r="E108" s="4">
         <v>3.4545599999999999</v>
       </c>
-      <c r="F104" s="4">
+      <c r="F108" s="4">
         <v>3.4545599999999999</v>
       </c>
-      <c r="G104" s="4">
-        <v>0</v>
-      </c>
-      <c r="H104" s="4">
-        <v>0</v>
-      </c>
-      <c r="I104" s="4">
-        <v>0</v>
-      </c>
-      <c r="J104" s="4">
-        <v>0</v>
-      </c>
-      <c r="K104" s="4">
-        <v>0</v>
-      </c>
-      <c r="L104" s="4">
+      <c r="G108" s="4">
+        <v>0</v>
+      </c>
+      <c r="H108" s="4">
+        <v>0</v>
+      </c>
+      <c r="I108" s="4">
+        <v>0</v>
+      </c>
+      <c r="J108" s="4">
+        <v>0</v>
+      </c>
+      <c r="K108" s="4">
+        <v>0</v>
+      </c>
+      <c r="L108" s="4">
         <v>1.151505</v>
       </c>
-      <c r="M104" s="4">
-        <v>0</v>
-      </c>
-      <c r="N104" s="4">
-        <v>0</v>
-      </c>
-      <c r="O104" s="4">
-        <v>0</v>
-      </c>
-      <c r="P104" s="4">
+      <c r="M108" s="4">
+        <v>0</v>
+      </c>
+      <c r="N108" s="4">
+        <v>0</v>
+      </c>
+      <c r="O108" s="4">
+        <v>0</v>
+      </c>
+      <c r="P108" s="4">
         <v>1.7272799999999999</v>
       </c>
-      <c r="Q104" s="4">
-        <v>0</v>
-      </c>
-      <c r="R104" s="4">
-        <v>0</v>
-      </c>
-      <c r="S104" s="4">
+      <c r="Q108" s="4">
+        <v>0</v>
+      </c>
+      <c r="R108" s="4">
+        <v>0</v>
+      </c>
+      <c r="S108" s="4">
         <v>0.43181999999999998</v>
       </c>
-      <c r="T104" s="4">
+      <c r="T108" s="4">
         <v>1.007595</v>
       </c>
-      <c r="U104" s="4">
+      <c r="U108" s="4">
         <v>2.30301</v>
       </c>
-      <c r="V104" s="4">
-        <v>0</v>
-      </c>
-      <c r="W104" s="4">
-        <v>0</v>
-      </c>
-      <c r="X104" s="4">
+      <c r="V108" s="4">
+        <v>0</v>
+      </c>
+      <c r="W108" s="4">
+        <v>0</v>
+      </c>
+      <c r="X108" s="4">
         <v>8.3777849999999994</v>
       </c>
-      <c r="Y104" s="4">
+      <c r="Y108" s="4">
         <v>2.980305</v>
       </c>
-      <c r="Z104" s="4">
+      <c r="Z108" s="4">
         <v>5.1838199999999999</v>
       </c>
-      <c r="AA104" s="4">
+      <c r="AA108" s="4">
         <v>2.8787850000000001</v>
       </c>
-      <c r="AB104" s="4">
+      <c r="AB108" s="4">
         <v>1.1227050000000001</v>
       </c>
-      <c r="AC104" s="4">
+      <c r="AC108" s="4">
         <v>3.4545599999999999</v>
       </c>
-      <c r="AD104" s="4">
+      <c r="AD108" s="4">
         <v>1.123245</v>
       </c>
-      <c r="AE104" s="4">
+      <c r="AE108" s="4">
         <v>1.742445</v>
       </c>
-      <c r="AF104" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG104" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH104" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI104" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ104" s="4">
+      <c r="AF108" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG108" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH108" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI108" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ108" s="4">
         <v>0.57577500000000004</v>
       </c>
-      <c r="AK104" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL104" s="4">
+      <c r="AK108" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL108" s="4">
         <v>1.151505</v>
       </c>
-      <c r="AM104" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN104" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO104" s="4">
+      <c r="AM108" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN108" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO108" s="4">
         <v>1.151505</v>
       </c>
-      <c r="AP104" s="4">
+      <c r="AP108" s="4">
         <v>1.7272799999999999</v>
       </c>
-      <c r="AQ104" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR104" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS104" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+      <c r="AQ108" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR108" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS108" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>129</v>
       </c>
-      <c r="B105" s="4">
-        <v>0</v>
-      </c>
-      <c r="C105" s="4">
-        <v>0</v>
-      </c>
-      <c r="D105" s="4">
-        <v>0</v>
-      </c>
-      <c r="E105" s="4">
+      <c r="B109" s="4">
+        <v>0</v>
+      </c>
+      <c r="C109" s="4">
+        <v>0</v>
+      </c>
+      <c r="D109" s="4">
+        <v>0</v>
+      </c>
+      <c r="E109" s="4">
         <v>0.54285000000000005</v>
       </c>
-      <c r="F105" s="4">
-        <v>0</v>
-      </c>
-      <c r="G105" s="4">
-        <v>0</v>
-      </c>
-      <c r="H105" s="4">
-        <v>0</v>
-      </c>
-      <c r="I105" s="4">
-        <v>0</v>
-      </c>
-      <c r="J105" s="4">
-        <v>0</v>
-      </c>
-      <c r="K105" s="4">
-        <v>0</v>
-      </c>
-      <c r="L105" s="4">
+      <c r="F109" s="4">
+        <v>0</v>
+      </c>
+      <c r="G109" s="4">
+        <v>0</v>
+      </c>
+      <c r="H109" s="4">
+        <v>0</v>
+      </c>
+      <c r="I109" s="4">
+        <v>0</v>
+      </c>
+      <c r="J109" s="4">
+        <v>0</v>
+      </c>
+      <c r="K109" s="4">
+        <v>0</v>
+      </c>
+      <c r="L109" s="4">
         <v>1.30284</v>
       </c>
-      <c r="M105" s="4">
-        <v>0</v>
-      </c>
-      <c r="N105" s="4">
+      <c r="M109" s="4">
+        <v>0</v>
+      </c>
+      <c r="N109" s="4">
         <v>2.0266869999999999</v>
       </c>
-      <c r="O105" s="4">
+      <c r="O109" s="4">
         <v>1.809547</v>
       </c>
-      <c r="P105" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="4">
-        <v>0</v>
-      </c>
-      <c r="R105" s="4">
+      <c r="P109" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="4">
+        <v>0</v>
+      </c>
+      <c r="R109" s="4">
         <v>3.7999969999999998</v>
       </c>
-      <c r="S105" s="4">
+      <c r="S109" s="4">
         <v>1.0857000000000001</v>
       </c>
-      <c r="T105" s="4">
+      <c r="T109" s="4">
         <v>0.91668799999999995</v>
       </c>
-      <c r="U105" s="4">
-        <v>0</v>
-      </c>
-      <c r="V105" s="4">
+      <c r="U109" s="4">
+        <v>0</v>
+      </c>
+      <c r="V109" s="4">
         <v>1.7428539999999999</v>
       </c>
-      <c r="W105" s="4">
+      <c r="W109" s="4">
         <v>3.7999969999999998</v>
       </c>
-      <c r="X105" s="4">
+      <c r="X109" s="4">
         <v>5.702839</v>
       </c>
-      <c r="Y105" s="4">
+      <c r="Y109" s="4">
         <v>2.3933339999999999</v>
       </c>
-      <c r="Z105" s="4">
+      <c r="Z109" s="4">
         <v>4.0200040000000001</v>
       </c>
-      <c r="AA105" s="4">
+      <c r="AA109" s="4">
         <v>3.6333350000000002</v>
       </c>
-      <c r="AB105" s="4">
+      <c r="AB109" s="4">
         <v>1.7100010000000001</v>
       </c>
-      <c r="AC105" s="4">
+      <c r="AC109" s="4">
         <v>4.1166830000000001</v>
       </c>
-      <c r="AD105" s="4">
+      <c r="AD109" s="4">
         <v>3.076667</v>
       </c>
-      <c r="AE105" s="4">
+      <c r="AE109" s="4">
         <v>2.9766509999999999</v>
       </c>
-      <c r="AF105" s="4">
+      <c r="AF109" s="4">
         <v>0.31668600000000002</v>
       </c>
-      <c r="AG105" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH105" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI105" s="4">
+      <c r="AG109" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH109" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI109" s="4">
         <v>1.2666500000000001</v>
       </c>
-      <c r="AJ105" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK105" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL105" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM105" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN105" s="4">
+      <c r="AJ109" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK109" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL109" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM109" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN109" s="4">
         <v>0.75999000000000005</v>
       </c>
-      <c r="AO105" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP105" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ105" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR105" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS105" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+      <c r="AO109" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP109" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ109" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR109" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS109" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>130</v>
       </c>
-      <c r="B106" s="4">
-        <v>0</v>
-      </c>
-      <c r="C106" s="4">
-        <v>0</v>
-      </c>
-      <c r="D106" s="4">
-        <v>0</v>
-      </c>
-      <c r="E106" s="4">
+      <c r="B110" s="4">
+        <v>0</v>
+      </c>
+      <c r="C110" s="4">
+        <v>0</v>
+      </c>
+      <c r="D110" s="4">
+        <v>0</v>
+      </c>
+      <c r="E110" s="4">
         <v>1.9512780000000001</v>
       </c>
-      <c r="F106" s="4">
-        <v>0</v>
-      </c>
-      <c r="G106" s="4">
-        <v>0</v>
-      </c>
-      <c r="H106" s="4">
-        <v>0</v>
-      </c>
-      <c r="I106" s="4">
+      <c r="F110" s="4">
+        <v>0</v>
+      </c>
+      <c r="G110" s="4">
+        <v>0</v>
+      </c>
+      <c r="H110" s="4">
+        <v>0</v>
+      </c>
+      <c r="I110" s="4">
         <v>1.9512780000000001</v>
       </c>
-      <c r="J106" s="4">
-        <v>0</v>
-      </c>
-      <c r="K106" s="4">
+      <c r="J110" s="4">
+        <v>0</v>
+      </c>
+      <c r="K110" s="4">
         <v>0.390264</v>
       </c>
-      <c r="L106" s="4">
+      <c r="L110" s="4">
         <v>3.9025979999999998</v>
       </c>
-      <c r="M106" s="4">
-        <v>0</v>
-      </c>
-      <c r="N106" s="4">
-        <v>0</v>
-      </c>
-      <c r="O106" s="4">
-        <v>0</v>
-      </c>
-      <c r="P106" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q106" s="4">
-        <v>0</v>
-      </c>
-      <c r="R106" s="4">
+      <c r="M110" s="4">
+        <v>0</v>
+      </c>
+      <c r="N110" s="4">
+        <v>0</v>
+      </c>
+      <c r="O110" s="4">
+        <v>0</v>
+      </c>
+      <c r="P110" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="4">
+        <v>0</v>
+      </c>
+      <c r="R110" s="4">
         <v>1.379364</v>
       </c>
-      <c r="S106" s="4">
-        <v>0</v>
-      </c>
-      <c r="T106" s="4">
-        <v>0</v>
-      </c>
-      <c r="U106" s="4">
+      <c r="S110" s="4">
+        <v>0</v>
+      </c>
+      <c r="T110" s="4">
+        <v>0</v>
+      </c>
+      <c r="U110" s="4">
         <v>5.3492459999999999</v>
       </c>
-      <c r="V106" s="4">
-        <v>0</v>
-      </c>
-      <c r="W106" s="4">
+      <c r="V110" s="4">
+        <v>0</v>
+      </c>
+      <c r="W110" s="4">
         <v>3.031812</v>
       </c>
-      <c r="X106" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y106" s="4">
+      <c r="X110" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y110" s="4">
         <v>3.226944</v>
       </c>
-      <c r="Z106" s="4">
+      <c r="Z110" s="4">
         <v>5.2573080000000001</v>
       </c>
-      <c r="AA106" s="4">
+      <c r="AA110" s="4">
         <v>1.9512780000000001</v>
       </c>
-      <c r="AB106" s="4">
+      <c r="AB110" s="4">
         <v>2.1598920000000001</v>
       </c>
-      <c r="AC106" s="4">
+      <c r="AC110" s="4">
         <v>0.54671400000000003</v>
       </c>
-      <c r="AD106" s="4">
+      <c r="AD110" s="4">
         <v>2.6415479999999998</v>
       </c>
-      <c r="AE106" s="4">
+      <c r="AE110" s="4">
         <v>0.97565999999999997</v>
       </c>
-      <c r="AF106" s="4">
+      <c r="AF110" s="4">
         <v>4.5530099999999996</v>
       </c>
-      <c r="AG106" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH106" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI106" s="4">
+      <c r="AG110" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH110" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI110" s="4">
         <v>0.390264</v>
       </c>
-      <c r="AJ106" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK106" s="4">
+      <c r="AJ110" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK110" s="4">
         <v>0.390264</v>
       </c>
-      <c r="AL106" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM106" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN106" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO106" s="4">
+      <c r="AL110" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM110" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN110" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO110" s="4">
         <v>1.9512780000000001</v>
       </c>
-      <c r="AP106" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ106" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR106" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS106" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+      <c r="AP110" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ110" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR110" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS110" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>131</v>
       </c>
-      <c r="B107" s="4">
-        <v>0</v>
-      </c>
-      <c r="C107" s="4">
-        <v>0</v>
-      </c>
-      <c r="D107" s="4">
-        <v>0</v>
-      </c>
-      <c r="E107" s="4">
-        <v>0</v>
-      </c>
-      <c r="F107" s="4">
-        <v>0</v>
-      </c>
-      <c r="G107" s="4">
-        <v>0</v>
-      </c>
-      <c r="H107" s="4">
-        <v>0</v>
-      </c>
-      <c r="I107" s="4">
-        <v>0</v>
-      </c>
-      <c r="J107" s="4">
-        <v>0</v>
-      </c>
-      <c r="K107" s="4">
-        <v>0</v>
-      </c>
-      <c r="L107" s="4">
-        <v>0</v>
-      </c>
-      <c r="M107" s="4">
-        <v>0</v>
-      </c>
-      <c r="N107" s="4">
+      <c r="B111" s="4">
+        <v>0</v>
+      </c>
+      <c r="C111" s="4">
+        <v>0</v>
+      </c>
+      <c r="D111" s="4">
+        <v>0</v>
+      </c>
+      <c r="E111" s="4">
+        <v>0</v>
+      </c>
+      <c r="F111" s="4">
+        <v>0</v>
+      </c>
+      <c r="G111" s="4">
+        <v>0</v>
+      </c>
+      <c r="H111" s="4">
+        <v>0</v>
+      </c>
+      <c r="I111" s="4">
+        <v>0</v>
+      </c>
+      <c r="J111" s="4">
+        <v>0</v>
+      </c>
+      <c r="K111" s="4">
+        <v>0</v>
+      </c>
+      <c r="L111" s="4">
+        <v>0</v>
+      </c>
+      <c r="M111" s="4">
+        <v>0</v>
+      </c>
+      <c r="N111" s="4">
         <v>0.42707400000000001</v>
       </c>
-      <c r="O107" s="4">
-        <v>0</v>
-      </c>
-      <c r="P107" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q107" s="4">
+      <c r="O111" s="4">
+        <v>0</v>
+      </c>
+      <c r="P111" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="4">
         <v>0.42707400000000001</v>
       </c>
-      <c r="R107" s="4">
-        <v>0</v>
-      </c>
-      <c r="S107" s="4">
-        <v>0</v>
-      </c>
-      <c r="T107" s="4">
-        <v>0</v>
-      </c>
-      <c r="U107" s="4">
-        <v>0</v>
-      </c>
-      <c r="V107" s="4">
+      <c r="R111" s="4">
+        <v>0</v>
+      </c>
+      <c r="S111" s="4">
+        <v>0</v>
+      </c>
+      <c r="T111" s="4">
+        <v>0</v>
+      </c>
+      <c r="U111" s="4">
+        <v>0</v>
+      </c>
+      <c r="V111" s="4">
         <v>0.85414800000000002</v>
       </c>
-      <c r="W107" s="4">
+      <c r="W111" s="4">
         <v>6.1249979999999997</v>
       </c>
-      <c r="X107" s="4">
+      <c r="X111" s="4">
         <v>4.0416480000000004</v>
       </c>
-      <c r="Y107" s="4">
+      <c r="Y111" s="4">
         <v>5.5595100000000004</v>
       </c>
-      <c r="Z107" s="4">
+      <c r="Z111" s="4">
         <v>4.9568430000000001</v>
       </c>
-      <c r="AA107" s="4">
+      <c r="AA111" s="4">
         <v>0.48807</v>
       </c>
-      <c r="AB107" s="4">
+      <c r="AB111" s="4">
         <v>3.0506160000000002</v>
       </c>
-      <c r="AC107" s="4">
+      <c r="AC111" s="4">
         <v>0.68334899999999998</v>
       </c>
-      <c r="AD107" s="4">
+      <c r="AD111" s="4">
         <v>6.3492959999999998</v>
       </c>
-      <c r="AE107" s="4">
+      <c r="AE111" s="4">
         <v>6.3777540000000004</v>
       </c>
-      <c r="AF107" s="4">
+      <c r="AF111" s="4">
         <v>0.91519499999999998</v>
       </c>
-      <c r="AG107" s="4">
+      <c r="AG111" s="4">
         <v>1.6874880000000001</v>
       </c>
-      <c r="AH107" s="4">
+      <c r="AH111" s="4">
         <v>2.1964169999999998</v>
       </c>
-      <c r="AI107" s="4">
+      <c r="AI111" s="4">
         <v>0.42707400000000001</v>
       </c>
-      <c r="AJ107" s="4">
+      <c r="AJ111" s="4">
         <v>4.2979229999999999</v>
       </c>
-      <c r="AK107" s="4">
+      <c r="AK111" s="4">
         <v>0.42707400000000001</v>
       </c>
-      <c r="AL107" s="4">
+      <c r="AL111" s="4">
         <v>1.7083470000000001</v>
       </c>
-      <c r="AM107" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN107" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO107" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP107" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ107" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR107" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS107" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+      <c r="AM111" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN111" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO111" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP111" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ111" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR111" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
         <v>132</v>
       </c>
-      <c r="B108" s="4">
-        <v>0</v>
-      </c>
-      <c r="C108" s="4">
-        <v>0</v>
-      </c>
-      <c r="D108" s="4">
-        <v>0</v>
-      </c>
-      <c r="E108" s="4">
-        <v>0</v>
-      </c>
-      <c r="F108" s="4">
-        <v>0</v>
-      </c>
-      <c r="G108" s="4">
-        <v>0</v>
-      </c>
-      <c r="H108" s="4">
-        <v>0</v>
-      </c>
-      <c r="I108" s="4">
-        <v>0</v>
-      </c>
-      <c r="J108" s="4">
-        <v>0</v>
-      </c>
-      <c r="K108" s="4">
-        <v>0</v>
-      </c>
-      <c r="L108" s="4">
-        <v>0</v>
-      </c>
-      <c r="M108" s="4">
-        <v>0</v>
-      </c>
-      <c r="N108" s="4">
-        <v>0</v>
-      </c>
-      <c r="O108" s="4">
-        <v>0</v>
-      </c>
-      <c r="P108" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q108" s="4">
-        <v>0</v>
-      </c>
-      <c r="R108" s="4">
-        <v>0</v>
-      </c>
-      <c r="S108" s="4">
-        <v>0</v>
-      </c>
-      <c r="T108" s="4">
-        <v>0</v>
-      </c>
-      <c r="U108" s="4">
+      <c r="B112" s="4">
+        <v>0</v>
+      </c>
+      <c r="C112" s="4">
+        <v>0</v>
+      </c>
+      <c r="D112" s="4">
+        <v>0</v>
+      </c>
+      <c r="E112" s="4">
+        <v>0</v>
+      </c>
+      <c r="F112" s="4">
+        <v>0</v>
+      </c>
+      <c r="G112" s="4">
+        <v>0</v>
+      </c>
+      <c r="H112" s="4">
+        <v>0</v>
+      </c>
+      <c r="I112" s="4">
+        <v>0</v>
+      </c>
+      <c r="J112" s="4">
+        <v>0</v>
+      </c>
+      <c r="K112" s="4">
+        <v>0</v>
+      </c>
+      <c r="L112" s="4">
+        <v>0</v>
+      </c>
+      <c r="M112" s="4">
+        <v>0</v>
+      </c>
+      <c r="N112" s="4">
+        <v>0</v>
+      </c>
+      <c r="O112" s="4">
+        <v>0</v>
+      </c>
+      <c r="P112" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="4">
+        <v>0</v>
+      </c>
+      <c r="R112" s="4">
+        <v>0</v>
+      </c>
+      <c r="S112" s="4">
+        <v>0</v>
+      </c>
+      <c r="T112" s="4">
+        <v>0</v>
+      </c>
+      <c r="U112" s="4">
         <v>0.34919499999999998</v>
       </c>
-      <c r="V108" s="4">
-        <v>0</v>
-      </c>
-      <c r="W108" s="4">
+      <c r="V112" s="4">
+        <v>0</v>
+      </c>
+      <c r="W112" s="4">
         <v>1.6250150000000001</v>
       </c>
-      <c r="X108" s="4">
+      <c r="X112" s="4">
         <v>1.763895</v>
       </c>
-      <c r="Y108" s="4">
+      <c r="Y112" s="4">
         <v>4.8214249999999996</v>
       </c>
-      <c r="Z108" s="4">
+      <c r="Z112" s="4">
         <v>1.6250150000000001</v>
       </c>
-      <c r="AA108" s="4">
+      <c r="AA112" s="4">
         <v>4.61111</v>
       </c>
-      <c r="AB108" s="4">
+      <c r="AB112" s="4">
         <v>1.222235</v>
       </c>
-      <c r="AC108" s="4">
+      <c r="AC112" s="4">
         <v>2.4444349999999999</v>
       </c>
-      <c r="AD108" s="4">
+      <c r="AD112" s="4">
         <v>3.52779</v>
       </c>
-      <c r="AE108" s="4">
+      <c r="AE112" s="4">
         <v>5.2916499999999997</v>
       </c>
-      <c r="AF108" s="4">
+      <c r="AF112" s="4">
         <v>3.1428600000000002</v>
       </c>
-      <c r="AG108" s="4">
+      <c r="AG112" s="4">
         <v>2.6547499999999999</v>
       </c>
-      <c r="AH108" s="4">
+      <c r="AH112" s="4">
         <v>0.34919499999999998</v>
       </c>
-      <c r="AI108" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ108" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK108" s="4">
+      <c r="AI112" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ112" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK112" s="4">
         <v>0.34919499999999998</v>
       </c>
-      <c r="AL108" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM108" s="4">
+      <c r="AL112" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM112" s="4">
         <v>1.222235</v>
-      </c>
-      <c r="AN108" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO108" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP108" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ108" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR108" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS108" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>133</v>
-      </c>
-      <c r="B109" s="4">
-        <v>0</v>
-      </c>
-      <c r="C109" s="4">
-        <v>0</v>
-      </c>
-      <c r="D109" s="4">
-        <v>0</v>
-      </c>
-      <c r="E109" s="4">
-        <v>0</v>
-      </c>
-      <c r="F109" s="4">
-        <v>0</v>
-      </c>
-      <c r="G109" s="4">
-        <v>0</v>
-      </c>
-      <c r="H109" s="4">
-        <v>0</v>
-      </c>
-      <c r="I109" s="4">
-        <v>0</v>
-      </c>
-      <c r="J109" s="4">
-        <v>0</v>
-      </c>
-      <c r="K109" s="4">
-        <v>0.43056</v>
-      </c>
-      <c r="L109" s="4">
-        <v>0</v>
-      </c>
-      <c r="M109" s="4">
-        <v>0</v>
-      </c>
-      <c r="N109" s="4">
-        <v>0</v>
-      </c>
-      <c r="O109" s="4">
-        <v>0</v>
-      </c>
-      <c r="P109" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q109" s="4">
-        <v>0</v>
-      </c>
-      <c r="R109" s="4">
-        <v>0</v>
-      </c>
-      <c r="S109" s="4">
-        <v>0</v>
-      </c>
-      <c r="T109" s="4">
-        <v>0</v>
-      </c>
-      <c r="U109" s="4">
-        <v>0</v>
-      </c>
-      <c r="V109" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="W109" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="X109" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y109" s="4">
-        <v>1.11944</v>
-      </c>
-      <c r="Z109" s="4">
-        <v>2</v>
-      </c>
-      <c r="AA109" s="4">
-        <v>6.09476</v>
-      </c>
-      <c r="AB109" s="4">
-        <v>6.0833199999999996</v>
-      </c>
-      <c r="AC109" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="AD109" s="4">
-        <v>1.0716000000000001</v>
-      </c>
-      <c r="AE109" s="4">
-        <v>4.5638800000000002</v>
-      </c>
-      <c r="AF109" s="4">
-        <v>5.0160400000000003</v>
-      </c>
-      <c r="AG109" s="4">
-        <v>6.5231599999999998</v>
-      </c>
-      <c r="AH109" s="4">
-        <v>0.81328</v>
-      </c>
-      <c r="AI109" s="4">
-        <v>2.4876399999999999</v>
-      </c>
-      <c r="AJ109" s="4">
-        <v>0.38272</v>
-      </c>
-      <c r="AK109" s="4">
-        <v>0.38272</v>
-      </c>
-      <c r="AL109" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM109" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN109" s="4">
-        <v>1.1481600000000001</v>
-      </c>
-      <c r="AO109" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP109" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ109" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR109" s="4">
-        <v>0.38272</v>
-      </c>
-      <c r="AS109" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>134</v>
-      </c>
-      <c r="B110" s="4">
-        <v>0</v>
-      </c>
-      <c r="C110" s="4">
-        <v>0</v>
-      </c>
-      <c r="D110" s="4">
-        <v>0</v>
-      </c>
-      <c r="E110" s="4">
-        <v>0</v>
-      </c>
-      <c r="F110" s="4">
-        <v>0</v>
-      </c>
-      <c r="G110" s="4">
-        <v>0</v>
-      </c>
-      <c r="H110" s="4">
-        <v>0</v>
-      </c>
-      <c r="I110" s="4">
-        <v>0</v>
-      </c>
-      <c r="J110" s="4">
-        <v>0</v>
-      </c>
-      <c r="K110" s="4">
-        <v>0</v>
-      </c>
-      <c r="L110" s="4">
-        <v>0</v>
-      </c>
-      <c r="M110" s="4">
-        <v>0</v>
-      </c>
-      <c r="N110" s="4">
-        <v>0</v>
-      </c>
-      <c r="O110" s="4">
-        <v>0</v>
-      </c>
-      <c r="P110" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q110" s="4">
-        <v>0</v>
-      </c>
-      <c r="R110" s="4">
-        <v>0</v>
-      </c>
-      <c r="S110" s="4">
-        <v>0</v>
-      </c>
-      <c r="T110" s="4">
-        <v>0</v>
-      </c>
-      <c r="U110" s="4">
-        <v>0</v>
-      </c>
-      <c r="V110" s="4">
-        <v>1.085712</v>
-      </c>
-      <c r="W110" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="X110" s="4">
-        <v>1.4523839999999999</v>
-      </c>
-      <c r="Y110" s="4">
-        <v>3.2380800000000001</v>
-      </c>
-      <c r="Z110" s="4">
-        <v>7.1749919999999996</v>
-      </c>
-      <c r="AA110" s="4">
-        <v>1.375008</v>
-      </c>
-      <c r="AB110" s="4">
-        <v>5.8218240000000003</v>
-      </c>
-      <c r="AC110" s="4">
-        <v>3.5912639999999998</v>
-      </c>
-      <c r="AD110" s="4">
-        <v>1.757952</v>
-      </c>
-      <c r="AE110" s="4">
-        <v>1.6805760000000001</v>
-      </c>
-      <c r="AF110" s="4">
-        <v>4.0916639999999997</v>
-      </c>
-      <c r="AG110" s="4">
-        <v>5.0000159999999996</v>
-      </c>
-      <c r="AH110" s="4">
-        <v>1.6805760000000001</v>
-      </c>
-      <c r="AI110" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ110" s="4">
-        <v>0.30556800000000001</v>
-      </c>
-      <c r="AK110" s="4">
-        <v>0.30556800000000001</v>
-      </c>
-      <c r="AL110" s="4">
-        <v>1.375008</v>
-      </c>
-      <c r="AM110" s="4">
-        <v>2.1388799999999999</v>
-      </c>
-      <c r="AN110" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO110" s="4">
-        <v>4.1250239999999998</v>
-      </c>
-      <c r="AP110" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ110" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR110" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS110" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>135</v>
-      </c>
-      <c r="B111" s="4">
-        <v>0</v>
-      </c>
-      <c r="C111" s="4">
-        <v>0</v>
-      </c>
-      <c r="D111" s="4">
-        <v>0</v>
-      </c>
-      <c r="E111" s="4">
-        <v>0</v>
-      </c>
-      <c r="F111" s="4">
-        <v>0</v>
-      </c>
-      <c r="G111" s="4">
-        <v>0</v>
-      </c>
-      <c r="H111" s="4">
-        <v>0</v>
-      </c>
-      <c r="I111" s="4">
-        <v>0</v>
-      </c>
-      <c r="J111" s="4">
-        <v>0.437745</v>
-      </c>
-      <c r="K111" s="4">
-        <v>0.437745</v>
-      </c>
-      <c r="L111" s="4">
-        <v>0</v>
-      </c>
-      <c r="M111" s="4">
-        <v>0.87543499999999996</v>
-      </c>
-      <c r="N111" s="4">
-        <v>0.21884500000000001</v>
-      </c>
-      <c r="O111" s="4">
-        <v>0.21884500000000001</v>
-      </c>
-      <c r="P111" s="4">
-        <v>0.87543499999999996</v>
-      </c>
-      <c r="Q111" s="4">
-        <v>0</v>
-      </c>
-      <c r="R111" s="4">
-        <v>0</v>
-      </c>
-      <c r="S111" s="4">
-        <v>0</v>
-      </c>
-      <c r="T111" s="4">
-        <v>0.21884500000000001</v>
-      </c>
-      <c r="U111" s="4">
-        <v>0</v>
-      </c>
-      <c r="V111" s="4">
-        <v>4.8150300000000001</v>
-      </c>
-      <c r="W111" s="4">
-        <v>2.1404350000000001</v>
-      </c>
-      <c r="X111" s="4">
-        <v>7.2224899999999996</v>
-      </c>
-      <c r="Y111" s="4">
-        <v>5.4168950000000002</v>
-      </c>
-      <c r="Z111" s="4">
-        <v>13.310385</v>
-      </c>
-      <c r="AA111" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB111" s="4">
-        <v>0.21884500000000001</v>
-      </c>
-      <c r="AC111" s="4">
-        <v>4.40198</v>
-      </c>
-      <c r="AD111" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE111" s="4">
-        <v>5.3504550000000002</v>
-      </c>
-      <c r="AF111" s="4">
-        <v>1.1373450000000001</v>
-      </c>
-      <c r="AG111" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH111" s="4">
-        <v>2.21408</v>
-      </c>
-      <c r="AI111" s="4">
-        <v>0.53547999999999996</v>
-      </c>
-      <c r="AJ111" s="4">
-        <v>1.60501</v>
-      </c>
-      <c r="AK111" s="4">
-        <v>0.21884500000000001</v>
-      </c>
-      <c r="AL111" s="4">
-        <v>1.20373</v>
-      </c>
-      <c r="AM111" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN111" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO111" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP111" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ111" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR111" s="4">
-        <v>1.9259900000000001</v>
-      </c>
-      <c r="AS111" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>136</v>
-      </c>
-      <c r="B112" s="4">
-        <v>0</v>
-      </c>
-      <c r="C112" s="4">
-        <v>0</v>
-      </c>
-      <c r="D112" s="4">
-        <v>0</v>
-      </c>
-      <c r="E112" s="4">
-        <v>0</v>
-      </c>
-      <c r="F112" s="4">
-        <v>0</v>
-      </c>
-      <c r="G112" s="4">
-        <v>0</v>
-      </c>
-      <c r="H112" s="4">
-        <v>0</v>
-      </c>
-      <c r="I112" s="4">
-        <v>0</v>
-      </c>
-      <c r="J112" s="4">
-        <v>0</v>
-      </c>
-      <c r="K112" s="4">
-        <v>0</v>
-      </c>
-      <c r="L112" s="4">
-        <v>0</v>
-      </c>
-      <c r="M112" s="4">
-        <v>0</v>
-      </c>
-      <c r="N112" s="4">
-        <v>0</v>
-      </c>
-      <c r="O112" s="4">
-        <v>0</v>
-      </c>
-      <c r="P112" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q112" s="4">
-        <v>0</v>
-      </c>
-      <c r="R112" s="4">
-        <v>0</v>
-      </c>
-      <c r="S112" s="4">
-        <v>0</v>
-      </c>
-      <c r="T112" s="4">
-        <v>0</v>
-      </c>
-      <c r="U112" s="4">
-        <v>0</v>
-      </c>
-      <c r="V112" s="4">
-        <v>1.8000130000000001</v>
-      </c>
-      <c r="W112" s="4">
-        <v>0</v>
-      </c>
-      <c r="X112" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y112" s="4">
-        <v>2.830759</v>
-      </c>
-      <c r="Z112" s="4">
-        <v>4.625629</v>
-      </c>
-      <c r="AA112" s="4">
-        <v>1.3179399999999999</v>
-      </c>
-      <c r="AB112" s="4">
-        <v>4.3076879999999997</v>
-      </c>
-      <c r="AC112" s="4">
-        <v>2.2871920000000001</v>
-      </c>
-      <c r="AD112" s="4">
-        <v>0.71794800000000003</v>
-      </c>
-      <c r="AE112" s="4">
-        <v>3.1846269999999999</v>
-      </c>
-      <c r="AF112" s="4">
-        <v>0.71794800000000003</v>
-      </c>
-      <c r="AG112" s="4">
-        <v>5.6256279999999999</v>
-      </c>
-      <c r="AH112" s="4">
-        <v>3.230766</v>
-      </c>
-      <c r="AI112" s="4">
-        <v>1.507676</v>
-      </c>
-      <c r="AJ112" s="4">
-        <v>3.230766</v>
-      </c>
-      <c r="AK112" s="4">
-        <v>1.0769219999999999</v>
-      </c>
-      <c r="AL112" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM112" s="4">
-        <v>0.53846099999999997</v>
       </c>
       <c r="AN112" s="4">
         <v>0</v>
@@ -6181,7 +5665,7 @@
     </row>
     <row r="113" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B113" s="4">
         <v>0</v>
@@ -6211,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="K113" s="4">
-        <v>0</v>
+        <v>0.43056</v>
       </c>
       <c r="L113" s="4">
         <v>0</v>
@@ -6241,76 +5725,76 @@
         <v>0</v>
       </c>
       <c r="U113" s="4">
-        <v>2.3499840000000001</v>
+        <v>0</v>
       </c>
       <c r="V113" s="4">
-        <v>3.4750239999999999</v>
+        <v>0.5</v>
       </c>
       <c r="W113" s="4">
-        <v>0.75000800000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X113" s="4">
-        <v>1.124984</v>
+        <v>0</v>
       </c>
       <c r="Y113" s="4">
-        <v>2.3499840000000001</v>
+        <v>1.11944</v>
       </c>
       <c r="Z113" s="4">
-        <v>2.69164</v>
+        <v>2</v>
       </c>
       <c r="AA113" s="4">
-        <v>0.31331999999999999</v>
+        <v>6.09476</v>
       </c>
       <c r="AB113" s="4">
-        <v>2.2380960000000001</v>
+        <v>6.0833199999999996</v>
       </c>
       <c r="AC113" s="4">
-        <v>11.196415999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AD113" s="4">
-        <v>1.421448</v>
+        <v>1.0716000000000001</v>
       </c>
       <c r="AE113" s="4">
-        <v>3.0214240000000001</v>
+        <v>4.5638800000000002</v>
       </c>
       <c r="AF113" s="4">
-        <v>6.496448</v>
+        <v>5.0160400000000003</v>
       </c>
       <c r="AG113" s="4">
-        <v>2.7811840000000001</v>
+        <v>6.5231599999999998</v>
       </c>
       <c r="AH113" s="4">
-        <v>1.690024</v>
+        <v>0.81328</v>
       </c>
       <c r="AI113" s="4">
-        <v>0.94001599999999996</v>
+        <v>2.4876399999999999</v>
       </c>
       <c r="AJ113" s="4">
-        <v>8.7733519999999992</v>
+        <v>0.38272</v>
       </c>
       <c r="AK113" s="4">
-        <v>0.62663999999999997</v>
+        <v>0.38272</v>
       </c>
       <c r="AL113" s="4">
         <v>0</v>
       </c>
       <c r="AM113" s="4">
-        <v>0.62663999999999997</v>
+        <v>0</v>
       </c>
       <c r="AN113" s="4">
-        <v>0</v>
+        <v>1.1481600000000001</v>
       </c>
       <c r="AO113" s="4">
-        <v>1.566656</v>
+        <v>0</v>
       </c>
       <c r="AP113" s="4">
-        <v>1.566656</v>
+        <v>0</v>
       </c>
       <c r="AQ113" s="4">
         <v>0</v>
       </c>
       <c r="AR113" s="4">
-        <v>0</v>
+        <v>0.38272</v>
       </c>
       <c r="AS113" s="4">
         <v>0</v>
@@ -6318,7 +5802,7 @@
     </row>
     <row r="114" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B114" s="4">
         <v>0</v>
@@ -6339,10 +5823,10 @@
         <v>0</v>
       </c>
       <c r="H114" s="4">
-        <v>0.89287000000000005</v>
+        <v>0</v>
       </c>
       <c r="I114" s="4">
-        <v>2.6785549999999998</v>
+        <v>0</v>
       </c>
       <c r="J114" s="4">
         <v>0</v>
@@ -6351,16 +5835,16 @@
         <v>0</v>
       </c>
       <c r="L114" s="4">
-        <v>8.0357199999999995</v>
+        <v>0</v>
       </c>
       <c r="M114" s="4">
-        <v>0.89287000000000005</v>
+        <v>0</v>
       </c>
       <c r="N114" s="4">
-        <v>0.89287000000000005</v>
+        <v>0</v>
       </c>
       <c r="O114" s="4">
-        <v>1.7857400000000001</v>
+        <v>0</v>
       </c>
       <c r="P114" s="4">
         <v>0</v>
@@ -6381,67 +5865,67 @@
         <v>0</v>
       </c>
       <c r="V114" s="4">
-        <v>0</v>
+        <v>1.085712</v>
       </c>
       <c r="W114" s="4">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X114" s="4">
-        <v>0</v>
+        <v>1.4523839999999999</v>
       </c>
       <c r="Y114" s="4">
-        <v>0</v>
+        <v>3.2380800000000001</v>
       </c>
       <c r="Z114" s="4">
-        <v>0.55555500000000002</v>
+        <v>7.1749919999999996</v>
       </c>
       <c r="AA114" s="4">
-        <v>12.817475</v>
+        <v>1.375008</v>
       </c>
       <c r="AB114" s="4">
-        <v>0</v>
+        <v>5.8218240000000003</v>
       </c>
       <c r="AC114" s="4">
-        <v>1.7857400000000001</v>
+        <v>3.5912639999999998</v>
       </c>
       <c r="AD114" s="4">
-        <v>2.3412950000000001</v>
+        <v>1.757952</v>
       </c>
       <c r="AE114" s="4">
-        <v>9.5237999999999996</v>
+        <v>1.6805760000000001</v>
       </c>
       <c r="AF114" s="4">
-        <v>0.89287000000000005</v>
+        <v>4.0916639999999997</v>
       </c>
       <c r="AG114" s="4">
-        <v>0</v>
+        <v>5.0000159999999996</v>
       </c>
       <c r="AH114" s="4">
-        <v>0</v>
+        <v>1.6805760000000001</v>
       </c>
       <c r="AI114" s="4">
         <v>0</v>
       </c>
       <c r="AJ114" s="4">
-        <v>7.1428500000000001</v>
+        <v>0.30556800000000001</v>
       </c>
       <c r="AK114" s="4">
-        <v>0</v>
+        <v>0.30556800000000001</v>
       </c>
       <c r="AL114" s="4">
-        <v>0</v>
+        <v>1.375008</v>
       </c>
       <c r="AM114" s="4">
-        <v>0</v>
+        <v>2.1388799999999999</v>
       </c>
       <c r="AN114" s="4">
-        <v>2.3809499999999999</v>
+        <v>0</v>
       </c>
       <c r="AO114" s="4">
-        <v>0</v>
+        <v>4.1250239999999998</v>
       </c>
       <c r="AP114" s="4">
-        <v>2.3809499999999999</v>
+        <v>0</v>
       </c>
       <c r="AQ114" s="4">
         <v>0</v>
@@ -6455,7 +5939,7 @@
     </row>
     <row r="115" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B115" s="4">
         <v>0</v>
@@ -6482,28 +5966,28 @@
         <v>0</v>
       </c>
       <c r="J115" s="4">
-        <v>0</v>
+        <v>0.437745</v>
       </c>
       <c r="K115" s="4">
-        <v>0</v>
+        <v>0.437745</v>
       </c>
       <c r="L115" s="4">
         <v>0</v>
       </c>
       <c r="M115" s="4">
-        <v>0</v>
+        <v>0.87543499999999996</v>
       </c>
       <c r="N115" s="4">
-        <v>0</v>
+        <v>0.21884500000000001</v>
       </c>
       <c r="O115" s="4">
-        <v>0</v>
+        <v>0.21884500000000001</v>
       </c>
       <c r="P115" s="4">
-        <v>0</v>
+        <v>0.87543499999999996</v>
       </c>
       <c r="Q115" s="4">
-        <v>1.7499899999999999</v>
+        <v>0</v>
       </c>
       <c r="R115" s="4">
         <v>0</v>
@@ -6512,64 +5996,64 @@
         <v>0</v>
       </c>
       <c r="T115" s="4">
-        <v>0</v>
+        <v>0.21884500000000001</v>
       </c>
       <c r="U115" s="4">
         <v>0</v>
       </c>
       <c r="V115" s="4">
-        <v>0</v>
+        <v>4.8150300000000001</v>
       </c>
       <c r="W115" s="4">
-        <v>1.0000100000000001</v>
+        <v>2.1404350000000001</v>
       </c>
       <c r="X115" s="4">
-        <v>1.0000100000000001</v>
+        <v>7.2224899999999996</v>
       </c>
       <c r="Y115" s="4">
-        <v>0</v>
+        <v>5.4168950000000002</v>
       </c>
       <c r="Z115" s="4">
-        <v>1.0000100000000001</v>
+        <v>13.310385</v>
       </c>
       <c r="AA115" s="4">
         <v>0</v>
       </c>
       <c r="AB115" s="4">
-        <v>0</v>
+        <v>0.21884500000000001</v>
       </c>
       <c r="AC115" s="4">
-        <v>1.16666</v>
+        <v>4.40198</v>
       </c>
       <c r="AD115" s="4">
-        <v>1.0000100000000001</v>
+        <v>0</v>
       </c>
       <c r="AE115" s="4">
-        <v>0</v>
+        <v>5.3504550000000002</v>
       </c>
       <c r="AF115" s="4">
-        <v>2.1666699999999999</v>
+        <v>1.1373450000000001</v>
       </c>
       <c r="AG115" s="4">
-        <v>4.4999900000000004</v>
+        <v>0</v>
       </c>
       <c r="AH115" s="4">
-        <v>0</v>
+        <v>2.21408</v>
       </c>
       <c r="AI115" s="4">
-        <v>0</v>
+        <v>0.53547999999999996</v>
       </c>
       <c r="AJ115" s="4">
-        <v>2.75</v>
+        <v>1.60501</v>
       </c>
       <c r="AK115" s="4">
-        <v>0</v>
+        <v>0.21884500000000001</v>
       </c>
       <c r="AL115" s="4">
-        <v>1.7499899999999999</v>
+        <v>1.20373</v>
       </c>
       <c r="AM115" s="4">
-        <v>1.0000100000000001</v>
+        <v>0</v>
       </c>
       <c r="AN115" s="4">
         <v>0</v>
@@ -6581,10 +6065,10 @@
         <v>0</v>
       </c>
       <c r="AQ115" s="4">
-        <v>1.16666</v>
+        <v>0</v>
       </c>
       <c r="AR115" s="4">
-        <v>1.7499899999999999</v>
+        <v>1.9259900000000001</v>
       </c>
       <c r="AS115" s="4">
         <v>0</v>
@@ -6592,7 +6076,7 @@
     </row>
     <row r="116" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B116" s="4">
         <v>0</v>
@@ -6652,67 +6136,67 @@
         <v>0</v>
       </c>
       <c r="U116" s="4">
-        <v>0.99999899999999997</v>
+        <v>0</v>
       </c>
       <c r="V116" s="4">
-        <v>0</v>
+        <v>1.8000130000000001</v>
       </c>
       <c r="W116" s="4">
-        <v>1.937505</v>
+        <v>0</v>
       </c>
       <c r="X116" s="4">
         <v>0</v>
       </c>
       <c r="Y116" s="4">
-        <v>1.4305680000000001</v>
+        <v>2.830759</v>
       </c>
       <c r="Z116" s="4">
-        <v>1.2916700000000001</v>
+        <v>4.625629</v>
       </c>
       <c r="AA116" s="4">
-        <v>3.2291750000000001</v>
+        <v>1.3179399999999999</v>
       </c>
       <c r="AB116" s="4">
-        <v>1.8298719999999999</v>
+        <v>4.3076879999999997</v>
       </c>
       <c r="AC116" s="4">
-        <v>4.3680719999999997</v>
+        <v>2.2871920000000001</v>
       </c>
       <c r="AD116" s="4">
-        <v>0.86110100000000001</v>
+        <v>0.71794800000000003</v>
       </c>
       <c r="AE116" s="4">
-        <v>5.8125150000000003</v>
+        <v>3.1846269999999999</v>
       </c>
       <c r="AF116" s="4">
-        <v>6.3055399999999997</v>
+        <v>0.71794800000000003</v>
       </c>
       <c r="AG116" s="4">
-        <v>1.937505</v>
+        <v>5.6256279999999999</v>
       </c>
       <c r="AH116" s="4">
-        <v>0.43056899999999998</v>
+        <v>3.230766</v>
       </c>
       <c r="AI116" s="4">
-        <v>0</v>
+        <v>1.507676</v>
       </c>
       <c r="AJ116" s="4">
-        <v>0</v>
+        <v>3.230766</v>
       </c>
       <c r="AK116" s="4">
-        <v>1.2916700000000001</v>
+        <v>1.0769219999999999</v>
       </c>
       <c r="AL116" s="4">
         <v>0</v>
       </c>
       <c r="AM116" s="4">
-        <v>0</v>
+        <v>0.53846099999999997</v>
       </c>
       <c r="AN116" s="4">
-        <v>0.43056899999999998</v>
+        <v>0</v>
       </c>
       <c r="AO116" s="4">
-        <v>0.96873399999999998</v>
+        <v>0</v>
       </c>
       <c r="AP116" s="4">
         <v>0</v>
@@ -6724,12 +6208,12 @@
         <v>0</v>
       </c>
       <c r="AS116" s="4">
-        <v>3.8750100000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B117" s="4">
         <v>0</v>
@@ -6789,70 +6273,70 @@
         <v>0</v>
       </c>
       <c r="U117" s="4">
-        <v>0</v>
+        <v>2.3499840000000001</v>
       </c>
       <c r="V117" s="4">
-        <v>0</v>
+        <v>3.4750239999999999</v>
       </c>
       <c r="W117" s="4">
-        <v>1.999984</v>
+        <v>0.75000800000000001</v>
       </c>
       <c r="X117" s="4">
-        <v>5.8750020000000003</v>
+        <v>1.124984</v>
       </c>
       <c r="Y117" s="4">
-        <v>1.999984</v>
+        <v>2.3499840000000001</v>
       </c>
       <c r="Z117" s="4">
-        <v>3.2847149999999998</v>
+        <v>2.69164</v>
       </c>
       <c r="AA117" s="4">
-        <v>2.687503</v>
+        <v>0.31331999999999999</v>
       </c>
       <c r="AB117" s="4">
-        <v>0.59721199999999997</v>
+        <v>2.2380960000000001</v>
       </c>
       <c r="AC117" s="4">
-        <v>1.5972040000000001</v>
+        <v>11.196415999999999</v>
       </c>
       <c r="AD117" s="4">
-        <v>0</v>
+        <v>1.421448</v>
       </c>
       <c r="AE117" s="4">
-        <v>0</v>
+        <v>3.0214240000000001</v>
       </c>
       <c r="AF117" s="4">
-        <v>0.59721199999999997</v>
+        <v>6.496448</v>
       </c>
       <c r="AG117" s="4">
-        <v>0.59721199999999997</v>
+        <v>2.7811840000000001</v>
       </c>
       <c r="AH117" s="4">
-        <v>2.2916810000000001</v>
+        <v>1.690024</v>
       </c>
       <c r="AI117" s="4">
-        <v>8.6597209999999993</v>
+        <v>0.94001599999999996</v>
       </c>
       <c r="AJ117" s="4">
-        <v>5.375006</v>
+        <v>8.7733519999999992</v>
       </c>
       <c r="AK117" s="4">
-        <v>0</v>
+        <v>0.62663999999999997</v>
       </c>
       <c r="AL117" s="4">
         <v>0</v>
       </c>
       <c r="AM117" s="4">
-        <v>7.1666910000000001</v>
+        <v>0.62663999999999997</v>
       </c>
       <c r="AN117" s="4">
-        <v>2.687503</v>
+        <v>0</v>
       </c>
       <c r="AO117" s="4">
-        <v>0</v>
+        <v>1.566656</v>
       </c>
       <c r="AP117" s="4">
-        <v>1.791685</v>
+        <v>1.566656</v>
       </c>
       <c r="AQ117" s="4">
         <v>0</v>
@@ -6861,12 +6345,12 @@
         <v>0</v>
       </c>
       <c r="AS117" s="4">
-        <v>1.791685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B118" s="4">
         <v>0</v>
@@ -6887,10 +6371,10 @@
         <v>0</v>
       </c>
       <c r="H118" s="4">
-        <v>0</v>
+        <v>0.89287000000000005</v>
       </c>
       <c r="I118" s="4">
-        <v>0</v>
+        <v>2.6785549999999998</v>
       </c>
       <c r="J118" s="4">
         <v>0</v>
@@ -6899,16 +6383,16 @@
         <v>0</v>
       </c>
       <c r="L118" s="4">
-        <v>0</v>
+        <v>8.0357199999999995</v>
       </c>
       <c r="M118" s="4">
-        <v>0</v>
+        <v>0.89287000000000005</v>
       </c>
       <c r="N118" s="4">
-        <v>0</v>
+        <v>0.89287000000000005</v>
       </c>
       <c r="O118" s="4">
-        <v>0</v>
+        <v>1.7857400000000001</v>
       </c>
       <c r="P118" s="4">
         <v>0</v>
@@ -6932,46 +6416,46 @@
         <v>0</v>
       </c>
       <c r="W118" s="4">
-        <v>0.85455000000000003</v>
+        <v>0</v>
       </c>
       <c r="X118" s="4">
-        <v>0.47475000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y118" s="4">
-        <v>2.4242499999999998</v>
+        <v>0</v>
       </c>
       <c r="Z118" s="4">
-        <v>3.6080999999999999</v>
+        <v>0.55555500000000002</v>
       </c>
       <c r="AA118" s="4">
-        <v>15.71415</v>
+        <v>12.817475</v>
       </c>
       <c r="AB118" s="4">
-        <v>4.9878999999999998</v>
+        <v>0</v>
       </c>
       <c r="AC118" s="4">
-        <v>2.7535500000000002</v>
+        <v>1.7857400000000001</v>
       </c>
       <c r="AD118" s="4">
-        <v>0</v>
+        <v>2.3412950000000001</v>
       </c>
       <c r="AE118" s="4">
-        <v>4.2727500000000003</v>
+        <v>9.5237999999999996</v>
       </c>
       <c r="AF118" s="4">
-        <v>4.2727500000000003</v>
+        <v>0.89287000000000005</v>
       </c>
       <c r="AG118" s="4">
-        <v>2.6111</v>
+        <v>0</v>
       </c>
       <c r="AH118" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI118" s="4">
-        <v>4.2727500000000003</v>
+        <v>0</v>
       </c>
       <c r="AJ118" s="4">
-        <v>1.3292999999999999</v>
+        <v>7.1428500000000001</v>
       </c>
       <c r="AK118" s="4">
         <v>0</v>
@@ -6983,16 +6467,16 @@
         <v>0</v>
       </c>
       <c r="AN118" s="4">
-        <v>0</v>
+        <v>2.3809499999999999</v>
       </c>
       <c r="AO118" s="4">
         <v>0</v>
       </c>
       <c r="AP118" s="4">
-        <v>0</v>
+        <v>2.3809499999999999</v>
       </c>
       <c r="AQ118" s="4">
-        <v>1.42425</v>
+        <v>0</v>
       </c>
       <c r="AR118" s="4">
         <v>0</v>
@@ -7003,7 +6487,7 @@
     </row>
     <row r="119" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B119" s="4">
         <v>0</v>
@@ -7051,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="Q119" s="4">
-        <v>0</v>
+        <v>1.7499899999999999</v>
       </c>
       <c r="R119" s="4">
         <v>0</v>
@@ -7066,58 +6550,58 @@
         <v>0</v>
       </c>
       <c r="V119" s="4">
-        <v>2.208351</v>
+        <v>0</v>
       </c>
       <c r="W119" s="4">
-        <v>0</v>
+        <v>1.0000100000000001</v>
       </c>
       <c r="X119" s="4">
-        <v>6.6249960000000003</v>
+        <v>1.0000100000000001</v>
       </c>
       <c r="Y119" s="4">
         <v>0</v>
       </c>
       <c r="Z119" s="4">
-        <v>1.2647729999999999</v>
+        <v>1.0000100000000001</v>
       </c>
       <c r="AA119" s="4">
-        <v>6.6249960000000003</v>
+        <v>0</v>
       </c>
       <c r="AB119" s="4">
-        <v>1.927284</v>
+        <v>0</v>
       </c>
       <c r="AC119" s="4">
-        <v>0.60226199999999996</v>
+        <v>1.16666</v>
       </c>
       <c r="AD119" s="4">
-        <v>8.6568179999999995</v>
+        <v>1.0000100000000001</v>
       </c>
       <c r="AE119" s="4">
-        <v>4.8064109999999998</v>
+        <v>0</v>
       </c>
       <c r="AF119" s="4">
-        <v>7.7291429999999997</v>
+        <v>2.1666699999999999</v>
       </c>
       <c r="AG119" s="4">
-        <v>0</v>
+        <v>4.4999900000000004</v>
       </c>
       <c r="AH119" s="4">
-        <v>3.9791699999999999</v>
+        <v>0</v>
       </c>
       <c r="AI119" s="4">
-        <v>1.3333440000000001</v>
+        <v>0</v>
       </c>
       <c r="AJ119" s="4">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AK119" s="4">
-        <v>3.5333160000000001</v>
+        <v>0</v>
       </c>
       <c r="AL119" s="4">
-        <v>1.2647729999999999</v>
+        <v>1.7499899999999999</v>
       </c>
       <c r="AM119" s="4">
-        <v>5.7817949999999998</v>
+        <v>1.0000100000000001</v>
       </c>
       <c r="AN119" s="4">
         <v>0</v>
@@ -7129,18 +6613,18 @@
         <v>0</v>
       </c>
       <c r="AQ119" s="4">
-        <v>0</v>
+        <v>1.16666</v>
       </c>
       <c r="AR119" s="4">
-        <v>0</v>
+        <v>1.7499899999999999</v>
       </c>
       <c r="AS119" s="4">
-        <v>0.66251099999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B120" s="4">
         <v>0</v>
@@ -7161,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="H120" s="4">
-        <v>7.0329600000000001</v>
+        <v>0</v>
       </c>
       <c r="I120" s="4">
         <v>0</v>
@@ -7173,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="L120" s="4">
-        <v>0.439552</v>
+        <v>0</v>
       </c>
       <c r="M120" s="4">
         <v>0</v>
@@ -7200,67 +6684,67 @@
         <v>0</v>
       </c>
       <c r="U120" s="4">
-        <v>0</v>
+        <v>0.99999899999999997</v>
       </c>
       <c r="V120" s="4">
         <v>0</v>
       </c>
       <c r="W120" s="4">
-        <v>3.5164800000000001</v>
+        <v>1.937505</v>
       </c>
       <c r="X120" s="4">
         <v>0</v>
       </c>
       <c r="Y120" s="4">
-        <v>1.1428480000000001</v>
+        <v>1.4305680000000001</v>
       </c>
       <c r="Z120" s="4">
-        <v>2.1978240000000002</v>
+        <v>1.2916700000000001</v>
       </c>
       <c r="AA120" s="4">
-        <v>6.9450240000000001</v>
+        <v>3.2291750000000001</v>
       </c>
       <c r="AB120" s="4">
-        <v>4.1025919999999996</v>
+        <v>1.8298719999999999</v>
       </c>
       <c r="AC120" s="4">
-        <v>2.5494400000000002</v>
+        <v>4.3680719999999997</v>
       </c>
       <c r="AD120" s="4">
-        <v>7.472512</v>
+        <v>0.86110100000000001</v>
       </c>
       <c r="AE120" s="4">
-        <v>2.3443200000000002</v>
+        <v>5.8125150000000003</v>
       </c>
       <c r="AF120" s="4">
-        <v>0</v>
+        <v>6.3055399999999997</v>
       </c>
       <c r="AG120" s="4">
-        <v>1.1721600000000001</v>
+        <v>1.937505</v>
       </c>
       <c r="AH120" s="4">
-        <v>3.5164800000000001</v>
+        <v>0.43056899999999998</v>
       </c>
       <c r="AI120" s="4">
-        <v>4.9230720000000003</v>
+        <v>0</v>
       </c>
       <c r="AJ120" s="4">
-        <v>3.2820480000000001</v>
+        <v>0</v>
       </c>
       <c r="AK120" s="4">
-        <v>1.4065920000000001</v>
+        <v>1.2916700000000001</v>
       </c>
       <c r="AL120" s="4">
-        <v>1.1721600000000001</v>
+        <v>0</v>
       </c>
       <c r="AM120" s="4">
-        <v>10.783872000000001</v>
+        <v>0</v>
       </c>
       <c r="AN120" s="4">
-        <v>0</v>
+        <v>0.43056899999999998</v>
       </c>
       <c r="AO120" s="4">
-        <v>0</v>
+        <v>0.96873399999999998</v>
       </c>
       <c r="AP120" s="4">
         <v>0</v>
@@ -7272,12 +6756,12 @@
         <v>0</v>
       </c>
       <c r="AS120" s="4">
-        <v>0</v>
+        <v>3.8750100000000001</v>
       </c>
     </row>
     <row r="121" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B121" s="4">
         <v>0</v>
@@ -7343,78 +6827,78 @@
         <v>0</v>
       </c>
       <c r="W121" s="4">
-        <v>0</v>
+        <v>1.999984</v>
       </c>
       <c r="X121" s="4">
-        <v>0.66666000000000003</v>
+        <v>5.8750020000000003</v>
       </c>
       <c r="Y121" s="4">
-        <v>0.66666000000000003</v>
+        <v>1.999984</v>
       </c>
       <c r="Z121" s="4">
-        <v>11.111902000000001</v>
+        <v>3.2847149999999998</v>
       </c>
       <c r="AA121" s="4">
-        <v>0</v>
+        <v>2.687503</v>
       </c>
       <c r="AB121" s="4">
-        <v>8.1047569999999993</v>
+        <v>0.59721199999999997</v>
       </c>
       <c r="AC121" s="4">
-        <v>1.3214300000000001</v>
+        <v>1.5972040000000001</v>
       </c>
       <c r="AD121" s="4">
-        <v>3.083323</v>
+        <v>0</v>
       </c>
       <c r="AE121" s="4">
-        <v>4.1404670000000001</v>
+        <v>0</v>
       </c>
       <c r="AF121" s="4">
-        <v>0</v>
+        <v>0.59721199999999997</v>
       </c>
       <c r="AG121" s="4">
-        <v>1.3214300000000001</v>
+        <v>0.59721199999999997</v>
       </c>
       <c r="AH121" s="4">
-        <v>0</v>
+        <v>2.2916810000000001</v>
       </c>
       <c r="AI121" s="4">
-        <v>2.6547499999999999</v>
+        <v>8.6597209999999993</v>
       </c>
       <c r="AJ121" s="4">
-        <v>0</v>
+        <v>5.375006</v>
       </c>
       <c r="AK121" s="4">
-        <v>5.2857200000000004</v>
+        <v>0</v>
       </c>
       <c r="AL121" s="4">
         <v>0</v>
       </c>
       <c r="AM121" s="4">
-        <v>0</v>
+        <v>7.1666910000000001</v>
       </c>
       <c r="AN121" s="4">
-        <v>0</v>
+        <v>2.687503</v>
       </c>
       <c r="AO121" s="4">
         <v>0</v>
       </c>
       <c r="AP121" s="4">
-        <v>0</v>
+        <v>1.791685</v>
       </c>
       <c r="AQ121" s="4">
-        <v>2.6428600000000002</v>
+        <v>0</v>
       </c>
       <c r="AR121" s="4">
         <v>0</v>
       </c>
       <c r="AS121" s="4">
-        <v>0</v>
+        <v>1.791685</v>
       </c>
     </row>
     <row r="122" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B122" s="4">
         <v>0</v>
@@ -7480,49 +6964,49 @@
         <v>0</v>
       </c>
       <c r="W122" s="4">
-        <v>0</v>
+        <v>0.85455000000000003</v>
       </c>
       <c r="X122" s="4">
-        <v>10.599344</v>
+        <v>0.47475000000000001</v>
       </c>
       <c r="Y122" s="4">
-        <v>6.1829599999999996</v>
+        <v>2.4242499999999998</v>
       </c>
       <c r="Z122" s="4">
-        <v>6.3595839999999999</v>
+        <v>3.6080999999999999</v>
       </c>
       <c r="AA122" s="4">
-        <v>13.838048000000001</v>
+        <v>15.71415</v>
       </c>
       <c r="AB122" s="4">
-        <v>16.487856000000001</v>
+        <v>4.9878999999999998</v>
       </c>
       <c r="AC122" s="4">
-        <v>2.6498080000000002</v>
+        <v>2.7535500000000002</v>
       </c>
       <c r="AD122" s="4">
-        <v>11.659312</v>
+        <v>0</v>
       </c>
       <c r="AE122" s="4">
-        <v>0</v>
+        <v>4.2727500000000003</v>
       </c>
       <c r="AF122" s="4">
-        <v>2.2376480000000001</v>
+        <v>4.2727500000000003</v>
       </c>
       <c r="AG122" s="4">
-        <v>2.2376480000000001</v>
+        <v>2.6111</v>
       </c>
       <c r="AH122" s="4">
-        <v>7.4195520000000004</v>
+        <v>1</v>
       </c>
       <c r="AI122" s="4">
-        <v>10.599344</v>
+        <v>4.2727500000000003</v>
       </c>
       <c r="AJ122" s="4">
-        <v>6.3595839999999999</v>
+        <v>1.3292999999999999</v>
       </c>
       <c r="AK122" s="4">
-        <v>2.6498080000000002</v>
+        <v>0</v>
       </c>
       <c r="AL122" s="4">
         <v>0</v>
@@ -7537,10 +7021,10 @@
         <v>0</v>
       </c>
       <c r="AP122" s="4">
-        <v>10.599344</v>
+        <v>0</v>
       </c>
       <c r="AQ122" s="4">
-        <v>2.1198239999999999</v>
+        <v>1.42425</v>
       </c>
       <c r="AR122" s="4">
         <v>0</v>
@@ -7551,7 +7035,7 @@
     </row>
     <row r="123" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B123" s="4">
         <v>0</v>
@@ -7614,67 +7098,67 @@
         <v>0</v>
       </c>
       <c r="V123" s="4">
-        <v>6.8333199999999996</v>
+        <v>2.208351</v>
       </c>
       <c r="W123" s="4">
         <v>0</v>
       </c>
       <c r="X123" s="4">
-        <v>7.809545</v>
+        <v>6.6249960000000003</v>
       </c>
       <c r="Y123" s="4">
-        <v>0.75004000000000004</v>
+        <v>0</v>
       </c>
       <c r="Z123" s="4">
-        <v>0</v>
+        <v>1.2647729999999999</v>
       </c>
       <c r="AA123" s="4">
-        <v>0</v>
+        <v>6.6249960000000003</v>
       </c>
       <c r="AB123" s="4">
-        <v>15.39282</v>
+        <v>1.927284</v>
       </c>
       <c r="AC123" s="4">
-        <v>0</v>
+        <v>0.60226199999999996</v>
       </c>
       <c r="AD123" s="4">
-        <v>9.3095400000000001</v>
+        <v>8.6568179999999995</v>
       </c>
       <c r="AE123" s="4">
-        <v>0</v>
+        <v>4.8064109999999998</v>
       </c>
       <c r="AF123" s="4">
-        <v>15.61909</v>
+        <v>7.7291429999999997</v>
       </c>
       <c r="AG123" s="4">
-        <v>6.8333199999999996</v>
+        <v>0</v>
       </c>
       <c r="AH123" s="4">
-        <v>0</v>
+        <v>3.9791699999999999</v>
       </c>
       <c r="AI123" s="4">
-        <v>0.97622500000000001</v>
+        <v>1.3333440000000001</v>
       </c>
       <c r="AJ123" s="4">
-        <v>0.97622500000000001</v>
+        <v>0</v>
       </c>
       <c r="AK123" s="4">
-        <v>6.8333199999999996</v>
+        <v>3.5333160000000001</v>
       </c>
       <c r="AL123" s="4">
-        <v>0</v>
+        <v>1.2647729999999999</v>
       </c>
       <c r="AM123" s="4">
-        <v>0</v>
+        <v>5.7817949999999998</v>
       </c>
       <c r="AN123" s="4">
-        <v>6.8333199999999996</v>
+        <v>0</v>
       </c>
       <c r="AO123" s="4">
         <v>0</v>
       </c>
       <c r="AP123" s="4">
-        <v>6.8333199999999996</v>
+        <v>0</v>
       </c>
       <c r="AQ123" s="4">
         <v>0</v>
@@ -7683,12 +7167,12 @@
         <v>0</v>
       </c>
       <c r="AS123" s="4">
-        <v>0</v>
+        <v>0.66251099999999996</v>
       </c>
     </row>
     <row r="124" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B124" s="4">
         <v>0</v>
@@ -7709,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="H124" s="4">
-        <v>0</v>
+        <v>7.0329600000000001</v>
       </c>
       <c r="I124" s="4">
         <v>0</v>
@@ -7721,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="L124" s="4">
-        <v>0</v>
+        <v>0.439552</v>
       </c>
       <c r="M124" s="4">
         <v>0</v>
@@ -7751,58 +7235,58 @@
         <v>0</v>
       </c>
       <c r="V124" s="4">
-        <v>2.458361</v>
+        <v>0</v>
       </c>
       <c r="W124" s="4">
-        <v>0</v>
+        <v>3.5164800000000001</v>
       </c>
       <c r="X124" s="4">
-        <v>5.736135</v>
+        <v>0</v>
       </c>
       <c r="Y124" s="4">
-        <v>9.8333220000000008</v>
+        <v>1.1428480000000001</v>
       </c>
       <c r="Z124" s="4">
-        <v>4.6874840000000004</v>
+        <v>2.1978240000000002</v>
       </c>
       <c r="AA124" s="4">
-        <v>6.5555479999999999</v>
+        <v>6.9450240000000001</v>
       </c>
       <c r="AB124" s="4">
-        <v>4.9166610000000004</v>
+        <v>4.1025919999999996</v>
       </c>
       <c r="AC124" s="4">
-        <v>3.6875110000000002</v>
+        <v>2.5494400000000002</v>
       </c>
       <c r="AD124" s="4">
-        <v>8.1944350000000004</v>
+        <v>7.472512</v>
       </c>
       <c r="AE124" s="4">
-        <v>2.458361</v>
+        <v>2.3443200000000002</v>
       </c>
       <c r="AF124" s="4">
-        <v>3.6875110000000002</v>
+        <v>0</v>
       </c>
       <c r="AG124" s="4">
-        <v>3.6875110000000002</v>
+        <v>1.1721600000000001</v>
       </c>
       <c r="AH124" s="4">
-        <v>0</v>
+        <v>3.5164800000000001</v>
       </c>
       <c r="AI124" s="4">
-        <v>0</v>
+        <v>4.9230720000000003</v>
       </c>
       <c r="AJ124" s="4">
-        <v>3.4583339999999998</v>
+        <v>3.2820480000000001</v>
       </c>
       <c r="AK124" s="4">
-        <v>0</v>
+        <v>1.4065920000000001</v>
       </c>
       <c r="AL124" s="4">
-        <v>0</v>
+        <v>1.1721600000000001</v>
       </c>
       <c r="AM124" s="4">
-        <v>1.638887</v>
+        <v>10.783872000000001</v>
       </c>
       <c r="AN124" s="4">
         <v>0</v>
@@ -7825,7 +7309,7 @@
     </row>
     <row r="125" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B125" s="4">
         <v>0</v>
@@ -7867,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="O125" s="4">
-        <v>1.8419000000000001</v>
+        <v>0</v>
       </c>
       <c r="P125" s="4">
         <v>0</v>
@@ -7885,73 +7369,73 @@
         <v>0</v>
       </c>
       <c r="U125" s="4">
-        <v>5.5256999999999996</v>
+        <v>0</v>
       </c>
       <c r="V125" s="4">
         <v>0</v>
       </c>
       <c r="W125" s="4">
-        <v>0.69069999999999998</v>
+        <v>0</v>
       </c>
       <c r="X125" s="4">
-        <v>5.5256999999999996</v>
+        <v>0.66666000000000003</v>
       </c>
       <c r="Y125" s="4">
-        <v>3.0127999999999999</v>
+        <v>0.66666000000000003</v>
       </c>
       <c r="Z125" s="4">
-        <v>1.3715999999999999</v>
+        <v>11.111902000000001</v>
       </c>
       <c r="AA125" s="4">
-        <v>9.7286000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB125" s="4">
-        <v>5.0724</v>
+        <v>8.1047569999999993</v>
       </c>
       <c r="AC125" s="4">
-        <v>23.655799999999999</v>
+        <v>1.3214300000000001</v>
       </c>
       <c r="AD125" s="4">
-        <v>6.8887999999999998</v>
+        <v>3.083323</v>
       </c>
       <c r="AE125" s="4">
-        <v>7.9814999999999996</v>
+        <v>4.1404670000000001</v>
       </c>
       <c r="AF125" s="4">
-        <v>6.4611999999999998</v>
+        <v>0</v>
       </c>
       <c r="AG125" s="4">
-        <v>5.0983000000000001</v>
+        <v>1.3214300000000001</v>
       </c>
       <c r="AH125" s="4">
-        <v>1.1402000000000001</v>
+        <v>0</v>
       </c>
       <c r="AI125" s="4">
-        <v>1.0817000000000001</v>
+        <v>2.6547499999999999</v>
       </c>
       <c r="AJ125" s="4">
-        <v>1.5729</v>
+        <v>0</v>
       </c>
       <c r="AK125" s="4">
-        <v>4.8094000000000001</v>
+        <v>5.2857200000000004</v>
       </c>
       <c r="AL125" s="4">
         <v>0</v>
       </c>
       <c r="AM125" s="4">
-        <v>2.0465</v>
+        <v>0</v>
       </c>
       <c r="AN125" s="4">
-        <v>1.8419000000000001</v>
+        <v>0</v>
       </c>
       <c r="AO125" s="4">
-        <v>3.9798</v>
+        <v>0</v>
       </c>
       <c r="AP125" s="4">
         <v>0</v>
       </c>
       <c r="AQ125" s="4">
-        <v>0.6724</v>
+        <v>2.6428600000000002</v>
       </c>
       <c r="AR125" s="4">
         <v>0</v>
@@ -7962,258 +7446,806 @@
     </row>
     <row r="126" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
+        <v>146</v>
+      </c>
+      <c r="B126" s="4">
+        <v>0</v>
+      </c>
+      <c r="C126" s="4">
+        <v>0</v>
+      </c>
+      <c r="D126" s="4">
+        <v>0</v>
+      </c>
+      <c r="E126" s="4">
+        <v>0</v>
+      </c>
+      <c r="F126" s="4">
+        <v>0</v>
+      </c>
+      <c r="G126" s="4">
+        <v>0</v>
+      </c>
+      <c r="H126" s="4">
+        <v>0</v>
+      </c>
+      <c r="I126" s="4">
+        <v>0</v>
+      </c>
+      <c r="J126" s="4">
+        <v>0</v>
+      </c>
+      <c r="K126" s="4">
+        <v>0</v>
+      </c>
+      <c r="L126" s="4">
+        <v>0</v>
+      </c>
+      <c r="M126" s="4">
+        <v>0</v>
+      </c>
+      <c r="N126" s="4">
+        <v>0</v>
+      </c>
+      <c r="O126" s="4">
+        <v>0</v>
+      </c>
+      <c r="P126" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="4">
+        <v>0</v>
+      </c>
+      <c r="R126" s="4">
+        <v>0</v>
+      </c>
+      <c r="S126" s="4">
+        <v>0</v>
+      </c>
+      <c r="T126" s="4">
+        <v>0</v>
+      </c>
+      <c r="U126" s="4">
+        <v>0</v>
+      </c>
+      <c r="V126" s="4">
+        <v>0</v>
+      </c>
+      <c r="W126" s="4">
+        <v>0</v>
+      </c>
+      <c r="X126" s="4">
+        <v>10.599344</v>
+      </c>
+      <c r="Y126" s="4">
+        <v>6.1829599999999996</v>
+      </c>
+      <c r="Z126" s="4">
+        <v>6.3595839999999999</v>
+      </c>
+      <c r="AA126" s="4">
+        <v>13.838048000000001</v>
+      </c>
+      <c r="AB126" s="4">
+        <v>16.487856000000001</v>
+      </c>
+      <c r="AC126" s="4">
+        <v>2.6498080000000002</v>
+      </c>
+      <c r="AD126" s="4">
+        <v>11.659312</v>
+      </c>
+      <c r="AE126" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF126" s="4">
+        <v>2.2376480000000001</v>
+      </c>
+      <c r="AG126" s="4">
+        <v>2.2376480000000001</v>
+      </c>
+      <c r="AH126" s="4">
+        <v>7.4195520000000004</v>
+      </c>
+      <c r="AI126" s="4">
+        <v>10.599344</v>
+      </c>
+      <c r="AJ126" s="4">
+        <v>6.3595839999999999</v>
+      </c>
+      <c r="AK126" s="4">
+        <v>2.6498080000000002</v>
+      </c>
+      <c r="AL126" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM126" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN126" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO126" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP126" s="4">
+        <v>10.599344</v>
+      </c>
+      <c r="AQ126" s="4">
+        <v>2.1198239999999999</v>
+      </c>
+      <c r="AR126" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS126" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>147</v>
+      </c>
+      <c r="B127" s="4">
+        <v>0</v>
+      </c>
+      <c r="C127" s="4">
+        <v>0</v>
+      </c>
+      <c r="D127" s="4">
+        <v>0</v>
+      </c>
+      <c r="E127" s="4">
+        <v>0</v>
+      </c>
+      <c r="F127" s="4">
+        <v>0</v>
+      </c>
+      <c r="G127" s="4">
+        <v>0</v>
+      </c>
+      <c r="H127" s="4">
+        <v>0</v>
+      </c>
+      <c r="I127" s="4">
+        <v>0</v>
+      </c>
+      <c r="J127" s="4">
+        <v>0</v>
+      </c>
+      <c r="K127" s="4">
+        <v>0</v>
+      </c>
+      <c r="L127" s="4">
+        <v>0</v>
+      </c>
+      <c r="M127" s="4">
+        <v>0</v>
+      </c>
+      <c r="N127" s="4">
+        <v>0</v>
+      </c>
+      <c r="O127" s="4">
+        <v>0</v>
+      </c>
+      <c r="P127" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="4">
+        <v>0</v>
+      </c>
+      <c r="R127" s="4">
+        <v>0</v>
+      </c>
+      <c r="S127" s="4">
+        <v>0</v>
+      </c>
+      <c r="T127" s="4">
+        <v>0</v>
+      </c>
+      <c r="U127" s="4">
+        <v>0</v>
+      </c>
+      <c r="V127" s="4">
+        <v>6.8333199999999996</v>
+      </c>
+      <c r="W127" s="4">
+        <v>0</v>
+      </c>
+      <c r="X127" s="4">
+        <v>7.809545</v>
+      </c>
+      <c r="Y127" s="4">
+        <v>0.75004000000000004</v>
+      </c>
+      <c r="Z127" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA127" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB127" s="4">
+        <v>15.39282</v>
+      </c>
+      <c r="AC127" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD127" s="4">
+        <v>9.3095400000000001</v>
+      </c>
+      <c r="AE127" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF127" s="4">
+        <v>15.61909</v>
+      </c>
+      <c r="AG127" s="4">
+        <v>6.8333199999999996</v>
+      </c>
+      <c r="AH127" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI127" s="4">
+        <v>0.97622500000000001</v>
+      </c>
+      <c r="AJ127" s="4">
+        <v>0.97622500000000001</v>
+      </c>
+      <c r="AK127" s="4">
+        <v>6.8333199999999996</v>
+      </c>
+      <c r="AL127" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM127" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN127" s="4">
+        <v>6.8333199999999996</v>
+      </c>
+      <c r="AO127" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP127" s="4">
+        <v>6.8333199999999996</v>
+      </c>
+      <c r="AQ127" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR127" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS127" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>148</v>
+      </c>
+      <c r="B128" s="4">
+        <v>0</v>
+      </c>
+      <c r="C128" s="4">
+        <v>0</v>
+      </c>
+      <c r="D128" s="4">
+        <v>0</v>
+      </c>
+      <c r="E128" s="4">
+        <v>0</v>
+      </c>
+      <c r="F128" s="4">
+        <v>0</v>
+      </c>
+      <c r="G128" s="4">
+        <v>0</v>
+      </c>
+      <c r="H128" s="4">
+        <v>0</v>
+      </c>
+      <c r="I128" s="4">
+        <v>0</v>
+      </c>
+      <c r="J128" s="4">
+        <v>0</v>
+      </c>
+      <c r="K128" s="4">
+        <v>0</v>
+      </c>
+      <c r="L128" s="4">
+        <v>0</v>
+      </c>
+      <c r="M128" s="4">
+        <v>0</v>
+      </c>
+      <c r="N128" s="4">
+        <v>0</v>
+      </c>
+      <c r="O128" s="4">
+        <v>0</v>
+      </c>
+      <c r="P128" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="4">
+        <v>0</v>
+      </c>
+      <c r="R128" s="4">
+        <v>0</v>
+      </c>
+      <c r="S128" s="4">
+        <v>0</v>
+      </c>
+      <c r="T128" s="4">
+        <v>0</v>
+      </c>
+      <c r="U128" s="4">
+        <v>0</v>
+      </c>
+      <c r="V128" s="4">
+        <v>2.458361</v>
+      </c>
+      <c r="W128" s="4">
+        <v>0</v>
+      </c>
+      <c r="X128" s="4">
+        <v>5.736135</v>
+      </c>
+      <c r="Y128" s="4">
+        <v>9.8333220000000008</v>
+      </c>
+      <c r="Z128" s="4">
+        <v>4.6874840000000004</v>
+      </c>
+      <c r="AA128" s="4">
+        <v>6.5555479999999999</v>
+      </c>
+      <c r="AB128" s="4">
+        <v>4.9166610000000004</v>
+      </c>
+      <c r="AC128" s="4">
+        <v>3.6875110000000002</v>
+      </c>
+      <c r="AD128" s="4">
+        <v>8.1944350000000004</v>
+      </c>
+      <c r="AE128" s="4">
+        <v>2.458361</v>
+      </c>
+      <c r="AF128" s="4">
+        <v>3.6875110000000002</v>
+      </c>
+      <c r="AG128" s="4">
+        <v>3.6875110000000002</v>
+      </c>
+      <c r="AH128" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI128" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ128" s="4">
+        <v>3.4583339999999998</v>
+      </c>
+      <c r="AK128" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL128" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM128" s="4">
+        <v>1.638887</v>
+      </c>
+      <c r="AN128" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO128" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP128" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ128" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR128" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS128" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>149</v>
+      </c>
+      <c r="B129" s="4">
+        <v>0</v>
+      </c>
+      <c r="C129" s="4">
+        <v>0</v>
+      </c>
+      <c r="D129" s="4">
+        <v>0</v>
+      </c>
+      <c r="E129" s="4">
+        <v>0</v>
+      </c>
+      <c r="F129" s="4">
+        <v>0</v>
+      </c>
+      <c r="G129" s="4">
+        <v>0</v>
+      </c>
+      <c r="H129" s="4">
+        <v>0</v>
+      </c>
+      <c r="I129" s="4">
+        <v>0</v>
+      </c>
+      <c r="J129" s="4">
+        <v>0</v>
+      </c>
+      <c r="K129" s="4">
+        <v>0</v>
+      </c>
+      <c r="L129" s="4">
+        <v>0</v>
+      </c>
+      <c r="M129" s="4">
+        <v>0</v>
+      </c>
+      <c r="N129" s="4">
+        <v>0</v>
+      </c>
+      <c r="O129" s="4">
+        <v>1.8419000000000001</v>
+      </c>
+      <c r="P129" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="4">
+        <v>0</v>
+      </c>
+      <c r="R129" s="4">
+        <v>0</v>
+      </c>
+      <c r="S129" s="4">
+        <v>0</v>
+      </c>
+      <c r="T129" s="4">
+        <v>0</v>
+      </c>
+      <c r="U129" s="4">
+        <v>5.5256999999999996</v>
+      </c>
+      <c r="V129" s="4">
+        <v>0</v>
+      </c>
+      <c r="W129" s="4">
+        <v>0.69069999999999998</v>
+      </c>
+      <c r="X129" s="4">
+        <v>5.5256999999999996</v>
+      </c>
+      <c r="Y129" s="4">
+        <v>3.0127999999999999</v>
+      </c>
+      <c r="Z129" s="4">
+        <v>1.3715999999999999</v>
+      </c>
+      <c r="AA129" s="4">
+        <v>9.7286000000000001</v>
+      </c>
+      <c r="AB129" s="4">
+        <v>5.0724</v>
+      </c>
+      <c r="AC129" s="4">
+        <v>23.655799999999999</v>
+      </c>
+      <c r="AD129" s="4">
+        <v>6.8887999999999998</v>
+      </c>
+      <c r="AE129" s="4">
+        <v>7.9814999999999996</v>
+      </c>
+      <c r="AF129" s="4">
+        <v>6.4611999999999998</v>
+      </c>
+      <c r="AG129" s="4">
+        <v>5.0983000000000001</v>
+      </c>
+      <c r="AH129" s="4">
+        <v>1.1402000000000001</v>
+      </c>
+      <c r="AI129" s="4">
+        <v>1.0817000000000001</v>
+      </c>
+      <c r="AJ129" s="4">
+        <v>1.5729</v>
+      </c>
+      <c r="AK129" s="4">
+        <v>4.8094000000000001</v>
+      </c>
+      <c r="AL129" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM129" s="4">
+        <v>2.0465</v>
+      </c>
+      <c r="AN129" s="4">
+        <v>1.8419000000000001</v>
+      </c>
+      <c r="AO129" s="4">
+        <v>3.9798</v>
+      </c>
+      <c r="AP129" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ129" s="4">
+        <v>0.6724</v>
+      </c>
+      <c r="AR129" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS129" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
         <v>150</v>
       </c>
-      <c r="B126" s="4">
-        <v>0</v>
-      </c>
-      <c r="C126" s="4">
-        <v>0</v>
-      </c>
-      <c r="D126" s="4">
-        <v>0</v>
-      </c>
-      <c r="E126" s="4">
-        <v>0</v>
-      </c>
-      <c r="F126" s="4">
-        <v>0</v>
-      </c>
-      <c r="G126" s="4">
+      <c r="B130" s="4">
+        <v>0</v>
+      </c>
+      <c r="C130" s="4">
+        <v>0</v>
+      </c>
+      <c r="D130" s="4">
+        <v>0</v>
+      </c>
+      <c r="E130" s="4">
+        <v>0</v>
+      </c>
+      <c r="F130" s="4">
+        <v>0</v>
+      </c>
+      <c r="G130" s="4">
         <v>5.8035639999999997</v>
       </c>
-      <c r="H126" s="4">
-        <v>0</v>
-      </c>
-      <c r="I126" s="4">
-        <v>0</v>
-      </c>
-      <c r="J126" s="4">
-        <v>0</v>
-      </c>
-      <c r="K126" s="4">
-        <v>0</v>
-      </c>
-      <c r="L126" s="4">
-        <v>0</v>
-      </c>
-      <c r="M126" s="4">
-        <v>0</v>
-      </c>
-      <c r="N126" s="4">
-        <v>0</v>
-      </c>
-      <c r="O126" s="4">
-        <v>0</v>
-      </c>
-      <c r="P126" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q126" s="4">
-        <v>0</v>
-      </c>
-      <c r="R126" s="4">
-        <v>0</v>
-      </c>
-      <c r="S126" s="4">
-        <v>0</v>
-      </c>
-      <c r="T126" s="4">
-        <v>0</v>
-      </c>
-      <c r="U126" s="4">
+      <c r="H130" s="4">
+        <v>0</v>
+      </c>
+      <c r="I130" s="4">
+        <v>0</v>
+      </c>
+      <c r="J130" s="4">
+        <v>0</v>
+      </c>
+      <c r="K130" s="4">
+        <v>0</v>
+      </c>
+      <c r="L130" s="4">
+        <v>0</v>
+      </c>
+      <c r="M130" s="4">
+        <v>0</v>
+      </c>
+      <c r="N130" s="4">
+        <v>0</v>
+      </c>
+      <c r="O130" s="4">
+        <v>0</v>
+      </c>
+      <c r="P130" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="4">
+        <v>0</v>
+      </c>
+      <c r="R130" s="4">
+        <v>0</v>
+      </c>
+      <c r="S130" s="4">
+        <v>0</v>
+      </c>
+      <c r="T130" s="4">
+        <v>0</v>
+      </c>
+      <c r="U130" s="4">
         <v>1.5476240000000001</v>
       </c>
-      <c r="V126" s="4">
+      <c r="V130" s="4">
         <v>3.385408</v>
       </c>
-      <c r="W126" s="4">
+      <c r="W130" s="4">
         <v>0.38688</v>
       </c>
-      <c r="X126" s="4">
+      <c r="X130" s="4">
         <v>1.450904</v>
       </c>
-      <c r="Y126" s="4">
+      <c r="Y130" s="4">
         <v>0.77381200000000006</v>
       </c>
-      <c r="Z126" s="4">
+      <c r="Z130" s="4">
         <v>1.4315599999999999</v>
       </c>
-      <c r="AA126" s="4">
+      <c r="AA130" s="4">
         <v>6.5773760000000001</v>
       </c>
-      <c r="AB126" s="4">
+      <c r="AB130" s="4">
         <v>6.1904960000000004</v>
       </c>
-      <c r="AC126" s="4">
+      <c r="AC130" s="4">
         <v>0.77381200000000006</v>
       </c>
-      <c r="AD126" s="4">
+      <c r="AD130" s="4">
         <v>6.8481920000000001</v>
       </c>
-      <c r="AE126" s="4">
+      <c r="AE130" s="4">
         <v>9.5759039999999995</v>
       </c>
-      <c r="AF126" s="4">
+      <c r="AF130" s="4">
         <v>1.5476240000000001</v>
       </c>
-      <c r="AG126" s="4">
+      <c r="AG130" s="4">
         <v>1.450904</v>
       </c>
-      <c r="AH126" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI126" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ126" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK126" s="4">
+      <c r="AH130" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI130" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ130" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK130" s="4">
         <v>1.934504</v>
       </c>
-      <c r="AL126" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM126" s="4">
+      <c r="AL130" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM130" s="4">
         <v>0.38688</v>
       </c>
-      <c r="AN126" s="4">
+      <c r="AN130" s="4">
         <v>0.38688</v>
       </c>
-      <c r="AO126" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP126" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ126" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR126" s="4">
+      <c r="AO130" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP130" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ130" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR130" s="4">
         <v>0.38688</v>
       </c>
-      <c r="AS126" s="4">
+      <c r="AS130" s="4">
         <v>1.1606920000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A128" s="1" t="s">
+    <row r="132" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
+    <row r="133" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
+    <row r="134" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
+    <row r="135" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
+    <row r="136" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
+    <row r="137" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
+    <row r="138" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
+    <row r="139" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
+    <row r="140" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
+    <row r="141" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
+    <row r="142" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
+    <row r="143" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
+    <row r="144" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
         <v>84</v>
       </c>
     </row>
